--- a/Tài liệu/Flow Received&Issues Goods.xlsx
+++ b/Tài liệu/Flow Received&Issues Goods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Stock Delivery\RIG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RIG\RIG\Tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FB9D40-DA08-4C25-B7C1-D2ED5A53A943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C8880-F6ED-44ED-AA37-9E58707D6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="7350" xr2:uid="{83156955-99A9-4DAF-BEAE-AA98AB7D54E2}"/>
+    <workbookView minimized="1" xWindow="1980" yWindow="1440" windowWidth="19200" windowHeight="11280" activeTab="4" xr2:uid="{83156955-99A9-4DAF-BEAE-AA98AB7D54E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Xuất Kho" sheetId="1" r:id="rId1"/>
@@ -192,12 +192,6 @@
 2. LOG scan mã ASN để xác nhận đã nhận được hàng</t>
   </si>
   <si>
-    <t>1. Hệ thống sẽ lấy thông tin về kế hoạch đó về để hiển thị lên phần "Kế hoạch"
-2. Khi hàng đã giao đến nơi và được confirm ASN thì hệ thống sẽ ghi nhận thời gian thực nhận hàng và hiển thị ở phần "Thực tế"
-3. Trong trường hợp NCC giao hàng trễ 15-20p thì hệ thống sẽ gửi mail cho các bên liên quan để thông báo và có thể thay đổi kế hoạch trên hệ thống
-4. Nếu giao hàng trễ hệ thống sẽ giữ nguyên màu hồng nhưng icon cảnh báo bên cạnh, nhưng nếu hàng đã giao đến nơi rồi và để ở khu chờ thì trạng thái sẽ chuyển màu vàng</t>
-  </si>
-  <si>
     <t>1. Hệ thống sẽ theo dõi tiến độ đưa hàng lên rack sau mỗi lần quét mã sản phẩm để đưua lên rack
 2. Trạng thái khi đó sẽ là màu xanh dương kèm với số % hàng đã đưa lên rack</t>
   </si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>CURRENT DMVN ISSUES GOODS</t>
+  </si>
+  <si>
+    <t>1. Hệ thống sẽ lấy thông tin về kế hoạch đó về để hiển thị lên phần "Kế hoạch"
+2. Khi hàng đã giao đến nơi và được confirm ASN thì hệ thống sẽ ghi nhận thời gian thực nhận hàng và hiển thị ở phần "Thực tế" --&gt; Update thành thời gian xe vào
+3. Trong trường hợp NCC giao hàng trễ 15-20p thì hệ thống sẽ gửi mail cho các bên liên quan để thông báo và có thể thay đổi kế hoạch trên hệ thống
+4. Nếu giao hàng trễ hệ thống sẽ giữ nguyên màu hồng nhưng icon cảnh báo bên cạnh, nhưng nếu hàng đã giao đến nơi rồi và để ở khu chờ thì trạng thái sẽ chuyển màu vàng</t>
   </si>
 </sst>
 </file>
@@ -3655,9 +3655,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1636575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2505653</xdr:rowOff>
+      <xdr:colOff>1245784</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>337766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -3675,14 +3675,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="2"/>
+          <a:stCxn id="255" idx="3"/>
           <a:endCxn id="49" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3854539" y="7390617"/>
-          <a:ext cx="383695" cy="1798731"/>
+          <a:off x="3475755" y="8775795"/>
+          <a:ext cx="774486" cy="423958"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7952,172 +7952,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>156881</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>127225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>697261</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="Picture 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D800DA-FE3C-440A-A987-A7AE9EFD4460}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1243852" y="7440706"/>
-          <a:ext cx="508226" cy="573996"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>115337</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>357653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>39779</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>371323</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="219" name="Straight Arrow Connector 218">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64FBAFC-DD51-4157-8B60-60FCE2B3435C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1740190" y="7675094"/>
-          <a:ext cx="529560" cy="13670"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>33059</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>644897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>483535</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="220" name="TextBox 219">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F69574-1B25-4C68-82B6-4439F828BB26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1120030" y="7962338"/>
-          <a:ext cx="988358" cy="486897"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Store history</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> if change</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>210040</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -11901,16 +11735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>163288</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19293</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>153763</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11933,7 +11767,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="1514475"/>
+          <a:off x="1362075" y="1438275"/>
           <a:ext cx="9764488" cy="1743318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16801,9 +16635,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16841,7 +16675,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -16947,7 +16781,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17089,7 +16923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17099,13 +16933,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0625AF49-F65E-405E-BFBF-F94D0813F85A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 CONFIDENTIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -17114,8 +16951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1E23DA-7F5F-464F-97DA-E9107727AA6D}">
   <dimension ref="B1:W113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -17130,1875 +16967,6 @@
     <col min="8" max="8" width="28.140625" style="9" customWidth="1"/>
     <col min="9" max="9" width="38.140625" style="9" customWidth="1"/>
     <col min="10" max="10" width="83.140625" style="9" customWidth="1"/>
-    <col min="11" max="12" width="8" style="9" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="40.140625" style="9" customWidth="1"/>
-    <col min="15" max="16" width="6.7109375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="6" style="9"/>
-    <col min="19" max="19" width="9.28515625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="9" customWidth="1"/>
-    <col min="21" max="243" width="6" style="9"/>
-    <col min="244" max="244" width="3.140625" style="9" customWidth="1"/>
-    <col min="245" max="245" width="9.85546875" style="9" customWidth="1"/>
-    <col min="246" max="246" width="8" style="9" customWidth="1"/>
-    <col min="247" max="247" width="9.140625" style="9" customWidth="1"/>
-    <col min="248" max="248" width="8" style="9" customWidth="1"/>
-    <col min="249" max="250" width="6.7109375" style="9" customWidth="1"/>
-    <col min="251" max="251" width="8.7109375" style="9" customWidth="1"/>
-    <col min="252" max="253" width="8" style="9" customWidth="1"/>
-    <col min="254" max="254" width="10.42578125" style="9" customWidth="1"/>
-    <col min="255" max="256" width="6.7109375" style="9" customWidth="1"/>
-    <col min="257" max="257" width="13.140625" style="9" customWidth="1"/>
-    <col min="258" max="261" width="7.7109375" style="9" customWidth="1"/>
-    <col min="262" max="263" width="8" style="9" customWidth="1"/>
-    <col min="264" max="264" width="11.28515625" style="9" customWidth="1"/>
-    <col min="265" max="267" width="8.42578125" style="9" customWidth="1"/>
-    <col min="268" max="270" width="7.7109375" style="9" customWidth="1"/>
-    <col min="271" max="499" width="6" style="9"/>
-    <col min="500" max="500" width="3.140625" style="9" customWidth="1"/>
-    <col min="501" max="501" width="9.85546875" style="9" customWidth="1"/>
-    <col min="502" max="502" width="8" style="9" customWidth="1"/>
-    <col min="503" max="503" width="9.140625" style="9" customWidth="1"/>
-    <col min="504" max="504" width="8" style="9" customWidth="1"/>
-    <col min="505" max="506" width="6.7109375" style="9" customWidth="1"/>
-    <col min="507" max="507" width="8.7109375" style="9" customWidth="1"/>
-    <col min="508" max="509" width="8" style="9" customWidth="1"/>
-    <col min="510" max="510" width="10.42578125" style="9" customWidth="1"/>
-    <col min="511" max="512" width="6.7109375" style="9" customWidth="1"/>
-    <col min="513" max="513" width="13.140625" style="9" customWidth="1"/>
-    <col min="514" max="517" width="7.7109375" style="9" customWidth="1"/>
-    <col min="518" max="519" width="8" style="9" customWidth="1"/>
-    <col min="520" max="520" width="11.28515625" style="9" customWidth="1"/>
-    <col min="521" max="523" width="8.42578125" style="9" customWidth="1"/>
-    <col min="524" max="526" width="7.7109375" style="9" customWidth="1"/>
-    <col min="527" max="755" width="6" style="9"/>
-    <col min="756" max="756" width="3.140625" style="9" customWidth="1"/>
-    <col min="757" max="757" width="9.85546875" style="9" customWidth="1"/>
-    <col min="758" max="758" width="8" style="9" customWidth="1"/>
-    <col min="759" max="759" width="9.140625" style="9" customWidth="1"/>
-    <col min="760" max="760" width="8" style="9" customWidth="1"/>
-    <col min="761" max="762" width="6.7109375" style="9" customWidth="1"/>
-    <col min="763" max="763" width="8.7109375" style="9" customWidth="1"/>
-    <col min="764" max="765" width="8" style="9" customWidth="1"/>
-    <col min="766" max="766" width="10.42578125" style="9" customWidth="1"/>
-    <col min="767" max="768" width="6.7109375" style="9" customWidth="1"/>
-    <col min="769" max="769" width="13.140625" style="9" customWidth="1"/>
-    <col min="770" max="773" width="7.7109375" style="9" customWidth="1"/>
-    <col min="774" max="775" width="8" style="9" customWidth="1"/>
-    <col min="776" max="776" width="11.28515625" style="9" customWidth="1"/>
-    <col min="777" max="779" width="8.42578125" style="9" customWidth="1"/>
-    <col min="780" max="782" width="7.7109375" style="9" customWidth="1"/>
-    <col min="783" max="1011" width="6" style="9"/>
-    <col min="1012" max="1012" width="3.140625" style="9" customWidth="1"/>
-    <col min="1013" max="1013" width="9.85546875" style="9" customWidth="1"/>
-    <col min="1014" max="1014" width="8" style="9" customWidth="1"/>
-    <col min="1015" max="1015" width="9.140625" style="9" customWidth="1"/>
-    <col min="1016" max="1016" width="8" style="9" customWidth="1"/>
-    <col min="1017" max="1018" width="6.7109375" style="9" customWidth="1"/>
-    <col min="1019" max="1019" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1020" max="1021" width="8" style="9" customWidth="1"/>
-    <col min="1022" max="1022" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1023" max="1024" width="6.7109375" style="9" customWidth="1"/>
-    <col min="1025" max="1025" width="13.140625" style="9" customWidth="1"/>
-    <col min="1026" max="1029" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1030" max="1031" width="8" style="9" customWidth="1"/>
-    <col min="1032" max="1032" width="11.28515625" style="9" customWidth="1"/>
-    <col min="1033" max="1035" width="8.42578125" style="9" customWidth="1"/>
-    <col min="1036" max="1038" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1039" max="1267" width="6" style="9"/>
-    <col min="1268" max="1268" width="3.140625" style="9" customWidth="1"/>
-    <col min="1269" max="1269" width="9.85546875" style="9" customWidth="1"/>
-    <col min="1270" max="1270" width="8" style="9" customWidth="1"/>
-    <col min="1271" max="1271" width="9.140625" style="9" customWidth="1"/>
-    <col min="1272" max="1272" width="8" style="9" customWidth="1"/>
-    <col min="1273" max="1274" width="6.7109375" style="9" customWidth="1"/>
-    <col min="1275" max="1275" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1276" max="1277" width="8" style="9" customWidth="1"/>
-    <col min="1278" max="1278" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1279" max="1280" width="6.7109375" style="9" customWidth="1"/>
-    <col min="1281" max="1281" width="13.140625" style="9" customWidth="1"/>
-    <col min="1282" max="1285" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1286" max="1287" width="8" style="9" customWidth="1"/>
-    <col min="1288" max="1288" width="11.28515625" style="9" customWidth="1"/>
-    <col min="1289" max="1291" width="8.42578125" style="9" customWidth="1"/>
-    <col min="1292" max="1294" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1295" max="1523" width="6" style="9"/>
-    <col min="1524" max="1524" width="3.140625" style="9" customWidth="1"/>
-    <col min="1525" max="1525" width="9.85546875" style="9" customWidth="1"/>
-    <col min="1526" max="1526" width="8" style="9" customWidth="1"/>
-    <col min="1527" max="1527" width="9.140625" style="9" customWidth="1"/>
-    <col min="1528" max="1528" width="8" style="9" customWidth="1"/>
-    <col min="1529" max="1530" width="6.7109375" style="9" customWidth="1"/>
-    <col min="1531" max="1531" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1532" max="1533" width="8" style="9" customWidth="1"/>
-    <col min="1534" max="1534" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1535" max="1536" width="6.7109375" style="9" customWidth="1"/>
-    <col min="1537" max="1537" width="13.140625" style="9" customWidth="1"/>
-    <col min="1538" max="1541" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1542" max="1543" width="8" style="9" customWidth="1"/>
-    <col min="1544" max="1544" width="11.28515625" style="9" customWidth="1"/>
-    <col min="1545" max="1547" width="8.42578125" style="9" customWidth="1"/>
-    <col min="1548" max="1550" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1551" max="1779" width="6" style="9"/>
-    <col min="1780" max="1780" width="3.140625" style="9" customWidth="1"/>
-    <col min="1781" max="1781" width="9.85546875" style="9" customWidth="1"/>
-    <col min="1782" max="1782" width="8" style="9" customWidth="1"/>
-    <col min="1783" max="1783" width="9.140625" style="9" customWidth="1"/>
-    <col min="1784" max="1784" width="8" style="9" customWidth="1"/>
-    <col min="1785" max="1786" width="6.7109375" style="9" customWidth="1"/>
-    <col min="1787" max="1787" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1788" max="1789" width="8" style="9" customWidth="1"/>
-    <col min="1790" max="1790" width="10.42578125" style="9" customWidth="1"/>
-    <col min="1791" max="1792" width="6.7109375" style="9" customWidth="1"/>
-    <col min="1793" max="1793" width="13.140625" style="9" customWidth="1"/>
-    <col min="1794" max="1797" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1798" max="1799" width="8" style="9" customWidth="1"/>
-    <col min="1800" max="1800" width="11.28515625" style="9" customWidth="1"/>
-    <col min="1801" max="1803" width="8.42578125" style="9" customWidth="1"/>
-    <col min="1804" max="1806" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1807" max="2035" width="6" style="9"/>
-    <col min="2036" max="2036" width="3.140625" style="9" customWidth="1"/>
-    <col min="2037" max="2037" width="9.85546875" style="9" customWidth="1"/>
-    <col min="2038" max="2038" width="8" style="9" customWidth="1"/>
-    <col min="2039" max="2039" width="9.140625" style="9" customWidth="1"/>
-    <col min="2040" max="2040" width="8" style="9" customWidth="1"/>
-    <col min="2041" max="2042" width="6.7109375" style="9" customWidth="1"/>
-    <col min="2043" max="2043" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2044" max="2045" width="8" style="9" customWidth="1"/>
-    <col min="2046" max="2046" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2047" max="2048" width="6.7109375" style="9" customWidth="1"/>
-    <col min="2049" max="2049" width="13.140625" style="9" customWidth="1"/>
-    <col min="2050" max="2053" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2054" max="2055" width="8" style="9" customWidth="1"/>
-    <col min="2056" max="2056" width="11.28515625" style="9" customWidth="1"/>
-    <col min="2057" max="2059" width="8.42578125" style="9" customWidth="1"/>
-    <col min="2060" max="2062" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2063" max="2291" width="6" style="9"/>
-    <col min="2292" max="2292" width="3.140625" style="9" customWidth="1"/>
-    <col min="2293" max="2293" width="9.85546875" style="9" customWidth="1"/>
-    <col min="2294" max="2294" width="8" style="9" customWidth="1"/>
-    <col min="2295" max="2295" width="9.140625" style="9" customWidth="1"/>
-    <col min="2296" max="2296" width="8" style="9" customWidth="1"/>
-    <col min="2297" max="2298" width="6.7109375" style="9" customWidth="1"/>
-    <col min="2299" max="2299" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2300" max="2301" width="8" style="9" customWidth="1"/>
-    <col min="2302" max="2302" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2303" max="2304" width="6.7109375" style="9" customWidth="1"/>
-    <col min="2305" max="2305" width="13.140625" style="9" customWidth="1"/>
-    <col min="2306" max="2309" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2310" max="2311" width="8" style="9" customWidth="1"/>
-    <col min="2312" max="2312" width="11.28515625" style="9" customWidth="1"/>
-    <col min="2313" max="2315" width="8.42578125" style="9" customWidth="1"/>
-    <col min="2316" max="2318" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2319" max="2547" width="6" style="9"/>
-    <col min="2548" max="2548" width="3.140625" style="9" customWidth="1"/>
-    <col min="2549" max="2549" width="9.85546875" style="9" customWidth="1"/>
-    <col min="2550" max="2550" width="8" style="9" customWidth="1"/>
-    <col min="2551" max="2551" width="9.140625" style="9" customWidth="1"/>
-    <col min="2552" max="2552" width="8" style="9" customWidth="1"/>
-    <col min="2553" max="2554" width="6.7109375" style="9" customWidth="1"/>
-    <col min="2555" max="2555" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2556" max="2557" width="8" style="9" customWidth="1"/>
-    <col min="2558" max="2558" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2559" max="2560" width="6.7109375" style="9" customWidth="1"/>
-    <col min="2561" max="2561" width="13.140625" style="9" customWidth="1"/>
-    <col min="2562" max="2565" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2566" max="2567" width="8" style="9" customWidth="1"/>
-    <col min="2568" max="2568" width="11.28515625" style="9" customWidth="1"/>
-    <col min="2569" max="2571" width="8.42578125" style="9" customWidth="1"/>
-    <col min="2572" max="2574" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2575" max="2803" width="6" style="9"/>
-    <col min="2804" max="2804" width="3.140625" style="9" customWidth="1"/>
-    <col min="2805" max="2805" width="9.85546875" style="9" customWidth="1"/>
-    <col min="2806" max="2806" width="8" style="9" customWidth="1"/>
-    <col min="2807" max="2807" width="9.140625" style="9" customWidth="1"/>
-    <col min="2808" max="2808" width="8" style="9" customWidth="1"/>
-    <col min="2809" max="2810" width="6.7109375" style="9" customWidth="1"/>
-    <col min="2811" max="2811" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2812" max="2813" width="8" style="9" customWidth="1"/>
-    <col min="2814" max="2814" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2815" max="2816" width="6.7109375" style="9" customWidth="1"/>
-    <col min="2817" max="2817" width="13.140625" style="9" customWidth="1"/>
-    <col min="2818" max="2821" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2822" max="2823" width="8" style="9" customWidth="1"/>
-    <col min="2824" max="2824" width="11.28515625" style="9" customWidth="1"/>
-    <col min="2825" max="2827" width="8.42578125" style="9" customWidth="1"/>
-    <col min="2828" max="2830" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2831" max="3059" width="6" style="9"/>
-    <col min="3060" max="3060" width="3.140625" style="9" customWidth="1"/>
-    <col min="3061" max="3061" width="9.85546875" style="9" customWidth="1"/>
-    <col min="3062" max="3062" width="8" style="9" customWidth="1"/>
-    <col min="3063" max="3063" width="9.140625" style="9" customWidth="1"/>
-    <col min="3064" max="3064" width="8" style="9" customWidth="1"/>
-    <col min="3065" max="3066" width="6.7109375" style="9" customWidth="1"/>
-    <col min="3067" max="3067" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3068" max="3069" width="8" style="9" customWidth="1"/>
-    <col min="3070" max="3070" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3071" max="3072" width="6.7109375" style="9" customWidth="1"/>
-    <col min="3073" max="3073" width="13.140625" style="9" customWidth="1"/>
-    <col min="3074" max="3077" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3078" max="3079" width="8" style="9" customWidth="1"/>
-    <col min="3080" max="3080" width="11.28515625" style="9" customWidth="1"/>
-    <col min="3081" max="3083" width="8.42578125" style="9" customWidth="1"/>
-    <col min="3084" max="3086" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3087" max="3315" width="6" style="9"/>
-    <col min="3316" max="3316" width="3.140625" style="9" customWidth="1"/>
-    <col min="3317" max="3317" width="9.85546875" style="9" customWidth="1"/>
-    <col min="3318" max="3318" width="8" style="9" customWidth="1"/>
-    <col min="3319" max="3319" width="9.140625" style="9" customWidth="1"/>
-    <col min="3320" max="3320" width="8" style="9" customWidth="1"/>
-    <col min="3321" max="3322" width="6.7109375" style="9" customWidth="1"/>
-    <col min="3323" max="3323" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3324" max="3325" width="8" style="9" customWidth="1"/>
-    <col min="3326" max="3326" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3327" max="3328" width="6.7109375" style="9" customWidth="1"/>
-    <col min="3329" max="3329" width="13.140625" style="9" customWidth="1"/>
-    <col min="3330" max="3333" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3334" max="3335" width="8" style="9" customWidth="1"/>
-    <col min="3336" max="3336" width="11.28515625" style="9" customWidth="1"/>
-    <col min="3337" max="3339" width="8.42578125" style="9" customWidth="1"/>
-    <col min="3340" max="3342" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3343" max="3571" width="6" style="9"/>
-    <col min="3572" max="3572" width="3.140625" style="9" customWidth="1"/>
-    <col min="3573" max="3573" width="9.85546875" style="9" customWidth="1"/>
-    <col min="3574" max="3574" width="8" style="9" customWidth="1"/>
-    <col min="3575" max="3575" width="9.140625" style="9" customWidth="1"/>
-    <col min="3576" max="3576" width="8" style="9" customWidth="1"/>
-    <col min="3577" max="3578" width="6.7109375" style="9" customWidth="1"/>
-    <col min="3579" max="3579" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3580" max="3581" width="8" style="9" customWidth="1"/>
-    <col min="3582" max="3582" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3583" max="3584" width="6.7109375" style="9" customWidth="1"/>
-    <col min="3585" max="3585" width="13.140625" style="9" customWidth="1"/>
-    <col min="3586" max="3589" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3590" max="3591" width="8" style="9" customWidth="1"/>
-    <col min="3592" max="3592" width="11.28515625" style="9" customWidth="1"/>
-    <col min="3593" max="3595" width="8.42578125" style="9" customWidth="1"/>
-    <col min="3596" max="3598" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3599" max="3827" width="6" style="9"/>
-    <col min="3828" max="3828" width="3.140625" style="9" customWidth="1"/>
-    <col min="3829" max="3829" width="9.85546875" style="9" customWidth="1"/>
-    <col min="3830" max="3830" width="8" style="9" customWidth="1"/>
-    <col min="3831" max="3831" width="9.140625" style="9" customWidth="1"/>
-    <col min="3832" max="3832" width="8" style="9" customWidth="1"/>
-    <col min="3833" max="3834" width="6.7109375" style="9" customWidth="1"/>
-    <col min="3835" max="3835" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3836" max="3837" width="8" style="9" customWidth="1"/>
-    <col min="3838" max="3838" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3839" max="3840" width="6.7109375" style="9" customWidth="1"/>
-    <col min="3841" max="3841" width="13.140625" style="9" customWidth="1"/>
-    <col min="3842" max="3845" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3846" max="3847" width="8" style="9" customWidth="1"/>
-    <col min="3848" max="3848" width="11.28515625" style="9" customWidth="1"/>
-    <col min="3849" max="3851" width="8.42578125" style="9" customWidth="1"/>
-    <col min="3852" max="3854" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3855" max="4083" width="6" style="9"/>
-    <col min="4084" max="4084" width="3.140625" style="9" customWidth="1"/>
-    <col min="4085" max="4085" width="9.85546875" style="9" customWidth="1"/>
-    <col min="4086" max="4086" width="8" style="9" customWidth="1"/>
-    <col min="4087" max="4087" width="9.140625" style="9" customWidth="1"/>
-    <col min="4088" max="4088" width="8" style="9" customWidth="1"/>
-    <col min="4089" max="4090" width="6.7109375" style="9" customWidth="1"/>
-    <col min="4091" max="4091" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4092" max="4093" width="8" style="9" customWidth="1"/>
-    <col min="4094" max="4094" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4095" max="4096" width="6.7109375" style="9" customWidth="1"/>
-    <col min="4097" max="4097" width="13.140625" style="9" customWidth="1"/>
-    <col min="4098" max="4101" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4102" max="4103" width="8" style="9" customWidth="1"/>
-    <col min="4104" max="4104" width="11.28515625" style="9" customWidth="1"/>
-    <col min="4105" max="4107" width="8.42578125" style="9" customWidth="1"/>
-    <col min="4108" max="4110" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4111" max="4339" width="6" style="9"/>
-    <col min="4340" max="4340" width="3.140625" style="9" customWidth="1"/>
-    <col min="4341" max="4341" width="9.85546875" style="9" customWidth="1"/>
-    <col min="4342" max="4342" width="8" style="9" customWidth="1"/>
-    <col min="4343" max="4343" width="9.140625" style="9" customWidth="1"/>
-    <col min="4344" max="4344" width="8" style="9" customWidth="1"/>
-    <col min="4345" max="4346" width="6.7109375" style="9" customWidth="1"/>
-    <col min="4347" max="4347" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4348" max="4349" width="8" style="9" customWidth="1"/>
-    <col min="4350" max="4350" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4351" max="4352" width="6.7109375" style="9" customWidth="1"/>
-    <col min="4353" max="4353" width="13.140625" style="9" customWidth="1"/>
-    <col min="4354" max="4357" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4358" max="4359" width="8" style="9" customWidth="1"/>
-    <col min="4360" max="4360" width="11.28515625" style="9" customWidth="1"/>
-    <col min="4361" max="4363" width="8.42578125" style="9" customWidth="1"/>
-    <col min="4364" max="4366" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4367" max="4595" width="6" style="9"/>
-    <col min="4596" max="4596" width="3.140625" style="9" customWidth="1"/>
-    <col min="4597" max="4597" width="9.85546875" style="9" customWidth="1"/>
-    <col min="4598" max="4598" width="8" style="9" customWidth="1"/>
-    <col min="4599" max="4599" width="9.140625" style="9" customWidth="1"/>
-    <col min="4600" max="4600" width="8" style="9" customWidth="1"/>
-    <col min="4601" max="4602" width="6.7109375" style="9" customWidth="1"/>
-    <col min="4603" max="4603" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4604" max="4605" width="8" style="9" customWidth="1"/>
-    <col min="4606" max="4606" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4607" max="4608" width="6.7109375" style="9" customWidth="1"/>
-    <col min="4609" max="4609" width="13.140625" style="9" customWidth="1"/>
-    <col min="4610" max="4613" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4614" max="4615" width="8" style="9" customWidth="1"/>
-    <col min="4616" max="4616" width="11.28515625" style="9" customWidth="1"/>
-    <col min="4617" max="4619" width="8.42578125" style="9" customWidth="1"/>
-    <col min="4620" max="4622" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4623" max="4851" width="6" style="9"/>
-    <col min="4852" max="4852" width="3.140625" style="9" customWidth="1"/>
-    <col min="4853" max="4853" width="9.85546875" style="9" customWidth="1"/>
-    <col min="4854" max="4854" width="8" style="9" customWidth="1"/>
-    <col min="4855" max="4855" width="9.140625" style="9" customWidth="1"/>
-    <col min="4856" max="4856" width="8" style="9" customWidth="1"/>
-    <col min="4857" max="4858" width="6.7109375" style="9" customWidth="1"/>
-    <col min="4859" max="4859" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4860" max="4861" width="8" style="9" customWidth="1"/>
-    <col min="4862" max="4862" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4863" max="4864" width="6.7109375" style="9" customWidth="1"/>
-    <col min="4865" max="4865" width="13.140625" style="9" customWidth="1"/>
-    <col min="4866" max="4869" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4870" max="4871" width="8" style="9" customWidth="1"/>
-    <col min="4872" max="4872" width="11.28515625" style="9" customWidth="1"/>
-    <col min="4873" max="4875" width="8.42578125" style="9" customWidth="1"/>
-    <col min="4876" max="4878" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4879" max="5107" width="6" style="9"/>
-    <col min="5108" max="5108" width="3.140625" style="9" customWidth="1"/>
-    <col min="5109" max="5109" width="9.85546875" style="9" customWidth="1"/>
-    <col min="5110" max="5110" width="8" style="9" customWidth="1"/>
-    <col min="5111" max="5111" width="9.140625" style="9" customWidth="1"/>
-    <col min="5112" max="5112" width="8" style="9" customWidth="1"/>
-    <col min="5113" max="5114" width="6.7109375" style="9" customWidth="1"/>
-    <col min="5115" max="5115" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5116" max="5117" width="8" style="9" customWidth="1"/>
-    <col min="5118" max="5118" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5119" max="5120" width="6.7109375" style="9" customWidth="1"/>
-    <col min="5121" max="5121" width="13.140625" style="9" customWidth="1"/>
-    <col min="5122" max="5125" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5126" max="5127" width="8" style="9" customWidth="1"/>
-    <col min="5128" max="5128" width="11.28515625" style="9" customWidth="1"/>
-    <col min="5129" max="5131" width="8.42578125" style="9" customWidth="1"/>
-    <col min="5132" max="5134" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5135" max="5363" width="6" style="9"/>
-    <col min="5364" max="5364" width="3.140625" style="9" customWidth="1"/>
-    <col min="5365" max="5365" width="9.85546875" style="9" customWidth="1"/>
-    <col min="5366" max="5366" width="8" style="9" customWidth="1"/>
-    <col min="5367" max="5367" width="9.140625" style="9" customWidth="1"/>
-    <col min="5368" max="5368" width="8" style="9" customWidth="1"/>
-    <col min="5369" max="5370" width="6.7109375" style="9" customWidth="1"/>
-    <col min="5371" max="5371" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5372" max="5373" width="8" style="9" customWidth="1"/>
-    <col min="5374" max="5374" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5375" max="5376" width="6.7109375" style="9" customWidth="1"/>
-    <col min="5377" max="5377" width="13.140625" style="9" customWidth="1"/>
-    <col min="5378" max="5381" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5382" max="5383" width="8" style="9" customWidth="1"/>
-    <col min="5384" max="5384" width="11.28515625" style="9" customWidth="1"/>
-    <col min="5385" max="5387" width="8.42578125" style="9" customWidth="1"/>
-    <col min="5388" max="5390" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5391" max="5619" width="6" style="9"/>
-    <col min="5620" max="5620" width="3.140625" style="9" customWidth="1"/>
-    <col min="5621" max="5621" width="9.85546875" style="9" customWidth="1"/>
-    <col min="5622" max="5622" width="8" style="9" customWidth="1"/>
-    <col min="5623" max="5623" width="9.140625" style="9" customWidth="1"/>
-    <col min="5624" max="5624" width="8" style="9" customWidth="1"/>
-    <col min="5625" max="5626" width="6.7109375" style="9" customWidth="1"/>
-    <col min="5627" max="5627" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5628" max="5629" width="8" style="9" customWidth="1"/>
-    <col min="5630" max="5630" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5631" max="5632" width="6.7109375" style="9" customWidth="1"/>
-    <col min="5633" max="5633" width="13.140625" style="9" customWidth="1"/>
-    <col min="5634" max="5637" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5638" max="5639" width="8" style="9" customWidth="1"/>
-    <col min="5640" max="5640" width="11.28515625" style="9" customWidth="1"/>
-    <col min="5641" max="5643" width="8.42578125" style="9" customWidth="1"/>
-    <col min="5644" max="5646" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5647" max="5875" width="6" style="9"/>
-    <col min="5876" max="5876" width="3.140625" style="9" customWidth="1"/>
-    <col min="5877" max="5877" width="9.85546875" style="9" customWidth="1"/>
-    <col min="5878" max="5878" width="8" style="9" customWidth="1"/>
-    <col min="5879" max="5879" width="9.140625" style="9" customWidth="1"/>
-    <col min="5880" max="5880" width="8" style="9" customWidth="1"/>
-    <col min="5881" max="5882" width="6.7109375" style="9" customWidth="1"/>
-    <col min="5883" max="5883" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5884" max="5885" width="8" style="9" customWidth="1"/>
-    <col min="5886" max="5886" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5887" max="5888" width="6.7109375" style="9" customWidth="1"/>
-    <col min="5889" max="5889" width="13.140625" style="9" customWidth="1"/>
-    <col min="5890" max="5893" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5894" max="5895" width="8" style="9" customWidth="1"/>
-    <col min="5896" max="5896" width="11.28515625" style="9" customWidth="1"/>
-    <col min="5897" max="5899" width="8.42578125" style="9" customWidth="1"/>
-    <col min="5900" max="5902" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5903" max="6131" width="6" style="9"/>
-    <col min="6132" max="6132" width="3.140625" style="9" customWidth="1"/>
-    <col min="6133" max="6133" width="9.85546875" style="9" customWidth="1"/>
-    <col min="6134" max="6134" width="8" style="9" customWidth="1"/>
-    <col min="6135" max="6135" width="9.140625" style="9" customWidth="1"/>
-    <col min="6136" max="6136" width="8" style="9" customWidth="1"/>
-    <col min="6137" max="6138" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6139" max="6139" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6140" max="6141" width="8" style="9" customWidth="1"/>
-    <col min="6142" max="6142" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6143" max="6144" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6145" max="6145" width="13.140625" style="9" customWidth="1"/>
-    <col min="6146" max="6149" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6150" max="6151" width="8" style="9" customWidth="1"/>
-    <col min="6152" max="6152" width="11.28515625" style="9" customWidth="1"/>
-    <col min="6153" max="6155" width="8.42578125" style="9" customWidth="1"/>
-    <col min="6156" max="6158" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6159" max="6387" width="6" style="9"/>
-    <col min="6388" max="6388" width="3.140625" style="9" customWidth="1"/>
-    <col min="6389" max="6389" width="9.85546875" style="9" customWidth="1"/>
-    <col min="6390" max="6390" width="8" style="9" customWidth="1"/>
-    <col min="6391" max="6391" width="9.140625" style="9" customWidth="1"/>
-    <col min="6392" max="6392" width="8" style="9" customWidth="1"/>
-    <col min="6393" max="6394" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6395" max="6395" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6396" max="6397" width="8" style="9" customWidth="1"/>
-    <col min="6398" max="6398" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6399" max="6400" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6401" max="6401" width="13.140625" style="9" customWidth="1"/>
-    <col min="6402" max="6405" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6406" max="6407" width="8" style="9" customWidth="1"/>
-    <col min="6408" max="6408" width="11.28515625" style="9" customWidth="1"/>
-    <col min="6409" max="6411" width="8.42578125" style="9" customWidth="1"/>
-    <col min="6412" max="6414" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6415" max="6643" width="6" style="9"/>
-    <col min="6644" max="6644" width="3.140625" style="9" customWidth="1"/>
-    <col min="6645" max="6645" width="9.85546875" style="9" customWidth="1"/>
-    <col min="6646" max="6646" width="8" style="9" customWidth="1"/>
-    <col min="6647" max="6647" width="9.140625" style="9" customWidth="1"/>
-    <col min="6648" max="6648" width="8" style="9" customWidth="1"/>
-    <col min="6649" max="6650" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6651" max="6651" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6652" max="6653" width="8" style="9" customWidth="1"/>
-    <col min="6654" max="6654" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6655" max="6656" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6657" max="6657" width="13.140625" style="9" customWidth="1"/>
-    <col min="6658" max="6661" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6662" max="6663" width="8" style="9" customWidth="1"/>
-    <col min="6664" max="6664" width="11.28515625" style="9" customWidth="1"/>
-    <col min="6665" max="6667" width="8.42578125" style="9" customWidth="1"/>
-    <col min="6668" max="6670" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6671" max="6899" width="6" style="9"/>
-    <col min="6900" max="6900" width="3.140625" style="9" customWidth="1"/>
-    <col min="6901" max="6901" width="9.85546875" style="9" customWidth="1"/>
-    <col min="6902" max="6902" width="8" style="9" customWidth="1"/>
-    <col min="6903" max="6903" width="9.140625" style="9" customWidth="1"/>
-    <col min="6904" max="6904" width="8" style="9" customWidth="1"/>
-    <col min="6905" max="6906" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6907" max="6907" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6908" max="6909" width="8" style="9" customWidth="1"/>
-    <col min="6910" max="6910" width="10.42578125" style="9" customWidth="1"/>
-    <col min="6911" max="6912" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6913" max="6913" width="13.140625" style="9" customWidth="1"/>
-    <col min="6914" max="6917" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6918" max="6919" width="8" style="9" customWidth="1"/>
-    <col min="6920" max="6920" width="11.28515625" style="9" customWidth="1"/>
-    <col min="6921" max="6923" width="8.42578125" style="9" customWidth="1"/>
-    <col min="6924" max="6926" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6927" max="7155" width="6" style="9"/>
-    <col min="7156" max="7156" width="3.140625" style="9" customWidth="1"/>
-    <col min="7157" max="7157" width="9.85546875" style="9" customWidth="1"/>
-    <col min="7158" max="7158" width="8" style="9" customWidth="1"/>
-    <col min="7159" max="7159" width="9.140625" style="9" customWidth="1"/>
-    <col min="7160" max="7160" width="8" style="9" customWidth="1"/>
-    <col min="7161" max="7162" width="6.7109375" style="9" customWidth="1"/>
-    <col min="7163" max="7163" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7164" max="7165" width="8" style="9" customWidth="1"/>
-    <col min="7166" max="7166" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7167" max="7168" width="6.7109375" style="9" customWidth="1"/>
-    <col min="7169" max="7169" width="13.140625" style="9" customWidth="1"/>
-    <col min="7170" max="7173" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7174" max="7175" width="8" style="9" customWidth="1"/>
-    <col min="7176" max="7176" width="11.28515625" style="9" customWidth="1"/>
-    <col min="7177" max="7179" width="8.42578125" style="9" customWidth="1"/>
-    <col min="7180" max="7182" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7183" max="7411" width="6" style="9"/>
-    <col min="7412" max="7412" width="3.140625" style="9" customWidth="1"/>
-    <col min="7413" max="7413" width="9.85546875" style="9" customWidth="1"/>
-    <col min="7414" max="7414" width="8" style="9" customWidth="1"/>
-    <col min="7415" max="7415" width="9.140625" style="9" customWidth="1"/>
-    <col min="7416" max="7416" width="8" style="9" customWidth="1"/>
-    <col min="7417" max="7418" width="6.7109375" style="9" customWidth="1"/>
-    <col min="7419" max="7419" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7420" max="7421" width="8" style="9" customWidth="1"/>
-    <col min="7422" max="7422" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7423" max="7424" width="6.7109375" style="9" customWidth="1"/>
-    <col min="7425" max="7425" width="13.140625" style="9" customWidth="1"/>
-    <col min="7426" max="7429" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7430" max="7431" width="8" style="9" customWidth="1"/>
-    <col min="7432" max="7432" width="11.28515625" style="9" customWidth="1"/>
-    <col min="7433" max="7435" width="8.42578125" style="9" customWidth="1"/>
-    <col min="7436" max="7438" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7439" max="7667" width="6" style="9"/>
-    <col min="7668" max="7668" width="3.140625" style="9" customWidth="1"/>
-    <col min="7669" max="7669" width="9.85546875" style="9" customWidth="1"/>
-    <col min="7670" max="7670" width="8" style="9" customWidth="1"/>
-    <col min="7671" max="7671" width="9.140625" style="9" customWidth="1"/>
-    <col min="7672" max="7672" width="8" style="9" customWidth="1"/>
-    <col min="7673" max="7674" width="6.7109375" style="9" customWidth="1"/>
-    <col min="7675" max="7675" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7676" max="7677" width="8" style="9" customWidth="1"/>
-    <col min="7678" max="7678" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7679" max="7680" width="6.7109375" style="9" customWidth="1"/>
-    <col min="7681" max="7681" width="13.140625" style="9" customWidth="1"/>
-    <col min="7682" max="7685" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7686" max="7687" width="8" style="9" customWidth="1"/>
-    <col min="7688" max="7688" width="11.28515625" style="9" customWidth="1"/>
-    <col min="7689" max="7691" width="8.42578125" style="9" customWidth="1"/>
-    <col min="7692" max="7694" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7695" max="7923" width="6" style="9"/>
-    <col min="7924" max="7924" width="3.140625" style="9" customWidth="1"/>
-    <col min="7925" max="7925" width="9.85546875" style="9" customWidth="1"/>
-    <col min="7926" max="7926" width="8" style="9" customWidth="1"/>
-    <col min="7927" max="7927" width="9.140625" style="9" customWidth="1"/>
-    <col min="7928" max="7928" width="8" style="9" customWidth="1"/>
-    <col min="7929" max="7930" width="6.7109375" style="9" customWidth="1"/>
-    <col min="7931" max="7931" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7932" max="7933" width="8" style="9" customWidth="1"/>
-    <col min="7934" max="7934" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7935" max="7936" width="6.7109375" style="9" customWidth="1"/>
-    <col min="7937" max="7937" width="13.140625" style="9" customWidth="1"/>
-    <col min="7938" max="7941" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7942" max="7943" width="8" style="9" customWidth="1"/>
-    <col min="7944" max="7944" width="11.28515625" style="9" customWidth="1"/>
-    <col min="7945" max="7947" width="8.42578125" style="9" customWidth="1"/>
-    <col min="7948" max="7950" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7951" max="8179" width="6" style="9"/>
-    <col min="8180" max="8180" width="3.140625" style="9" customWidth="1"/>
-    <col min="8181" max="8181" width="9.85546875" style="9" customWidth="1"/>
-    <col min="8182" max="8182" width="8" style="9" customWidth="1"/>
-    <col min="8183" max="8183" width="9.140625" style="9" customWidth="1"/>
-    <col min="8184" max="8184" width="8" style="9" customWidth="1"/>
-    <col min="8185" max="8186" width="6.7109375" style="9" customWidth="1"/>
-    <col min="8187" max="8187" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8188" max="8189" width="8" style="9" customWidth="1"/>
-    <col min="8190" max="8190" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8191" max="8192" width="6.7109375" style="9" customWidth="1"/>
-    <col min="8193" max="8193" width="13.140625" style="9" customWidth="1"/>
-    <col min="8194" max="8197" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8198" max="8199" width="8" style="9" customWidth="1"/>
-    <col min="8200" max="8200" width="11.28515625" style="9" customWidth="1"/>
-    <col min="8201" max="8203" width="8.42578125" style="9" customWidth="1"/>
-    <col min="8204" max="8206" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8207" max="8435" width="6" style="9"/>
-    <col min="8436" max="8436" width="3.140625" style="9" customWidth="1"/>
-    <col min="8437" max="8437" width="9.85546875" style="9" customWidth="1"/>
-    <col min="8438" max="8438" width="8" style="9" customWidth="1"/>
-    <col min="8439" max="8439" width="9.140625" style="9" customWidth="1"/>
-    <col min="8440" max="8440" width="8" style="9" customWidth="1"/>
-    <col min="8441" max="8442" width="6.7109375" style="9" customWidth="1"/>
-    <col min="8443" max="8443" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8444" max="8445" width="8" style="9" customWidth="1"/>
-    <col min="8446" max="8446" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8447" max="8448" width="6.7109375" style="9" customWidth="1"/>
-    <col min="8449" max="8449" width="13.140625" style="9" customWidth="1"/>
-    <col min="8450" max="8453" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8454" max="8455" width="8" style="9" customWidth="1"/>
-    <col min="8456" max="8456" width="11.28515625" style="9" customWidth="1"/>
-    <col min="8457" max="8459" width="8.42578125" style="9" customWidth="1"/>
-    <col min="8460" max="8462" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8463" max="8691" width="6" style="9"/>
-    <col min="8692" max="8692" width="3.140625" style="9" customWidth="1"/>
-    <col min="8693" max="8693" width="9.85546875" style="9" customWidth="1"/>
-    <col min="8694" max="8694" width="8" style="9" customWidth="1"/>
-    <col min="8695" max="8695" width="9.140625" style="9" customWidth="1"/>
-    <col min="8696" max="8696" width="8" style="9" customWidth="1"/>
-    <col min="8697" max="8698" width="6.7109375" style="9" customWidth="1"/>
-    <col min="8699" max="8699" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8700" max="8701" width="8" style="9" customWidth="1"/>
-    <col min="8702" max="8702" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8703" max="8704" width="6.7109375" style="9" customWidth="1"/>
-    <col min="8705" max="8705" width="13.140625" style="9" customWidth="1"/>
-    <col min="8706" max="8709" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8710" max="8711" width="8" style="9" customWidth="1"/>
-    <col min="8712" max="8712" width="11.28515625" style="9" customWidth="1"/>
-    <col min="8713" max="8715" width="8.42578125" style="9" customWidth="1"/>
-    <col min="8716" max="8718" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8719" max="8947" width="6" style="9"/>
-    <col min="8948" max="8948" width="3.140625" style="9" customWidth="1"/>
-    <col min="8949" max="8949" width="9.85546875" style="9" customWidth="1"/>
-    <col min="8950" max="8950" width="8" style="9" customWidth="1"/>
-    <col min="8951" max="8951" width="9.140625" style="9" customWidth="1"/>
-    <col min="8952" max="8952" width="8" style="9" customWidth="1"/>
-    <col min="8953" max="8954" width="6.7109375" style="9" customWidth="1"/>
-    <col min="8955" max="8955" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8956" max="8957" width="8" style="9" customWidth="1"/>
-    <col min="8958" max="8958" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8959" max="8960" width="6.7109375" style="9" customWidth="1"/>
-    <col min="8961" max="8961" width="13.140625" style="9" customWidth="1"/>
-    <col min="8962" max="8965" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8966" max="8967" width="8" style="9" customWidth="1"/>
-    <col min="8968" max="8968" width="11.28515625" style="9" customWidth="1"/>
-    <col min="8969" max="8971" width="8.42578125" style="9" customWidth="1"/>
-    <col min="8972" max="8974" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8975" max="9203" width="6" style="9"/>
-    <col min="9204" max="9204" width="3.140625" style="9" customWidth="1"/>
-    <col min="9205" max="9205" width="9.85546875" style="9" customWidth="1"/>
-    <col min="9206" max="9206" width="8" style="9" customWidth="1"/>
-    <col min="9207" max="9207" width="9.140625" style="9" customWidth="1"/>
-    <col min="9208" max="9208" width="8" style="9" customWidth="1"/>
-    <col min="9209" max="9210" width="6.7109375" style="9" customWidth="1"/>
-    <col min="9211" max="9211" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9212" max="9213" width="8" style="9" customWidth="1"/>
-    <col min="9214" max="9214" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9215" max="9216" width="6.7109375" style="9" customWidth="1"/>
-    <col min="9217" max="9217" width="13.140625" style="9" customWidth="1"/>
-    <col min="9218" max="9221" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9222" max="9223" width="8" style="9" customWidth="1"/>
-    <col min="9224" max="9224" width="11.28515625" style="9" customWidth="1"/>
-    <col min="9225" max="9227" width="8.42578125" style="9" customWidth="1"/>
-    <col min="9228" max="9230" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9231" max="9459" width="6" style="9"/>
-    <col min="9460" max="9460" width="3.140625" style="9" customWidth="1"/>
-    <col min="9461" max="9461" width="9.85546875" style="9" customWidth="1"/>
-    <col min="9462" max="9462" width="8" style="9" customWidth="1"/>
-    <col min="9463" max="9463" width="9.140625" style="9" customWidth="1"/>
-    <col min="9464" max="9464" width="8" style="9" customWidth="1"/>
-    <col min="9465" max="9466" width="6.7109375" style="9" customWidth="1"/>
-    <col min="9467" max="9467" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9468" max="9469" width="8" style="9" customWidth="1"/>
-    <col min="9470" max="9470" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9471" max="9472" width="6.7109375" style="9" customWidth="1"/>
-    <col min="9473" max="9473" width="13.140625" style="9" customWidth="1"/>
-    <col min="9474" max="9477" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9478" max="9479" width="8" style="9" customWidth="1"/>
-    <col min="9480" max="9480" width="11.28515625" style="9" customWidth="1"/>
-    <col min="9481" max="9483" width="8.42578125" style="9" customWidth="1"/>
-    <col min="9484" max="9486" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9487" max="9715" width="6" style="9"/>
-    <col min="9716" max="9716" width="3.140625" style="9" customWidth="1"/>
-    <col min="9717" max="9717" width="9.85546875" style="9" customWidth="1"/>
-    <col min="9718" max="9718" width="8" style="9" customWidth="1"/>
-    <col min="9719" max="9719" width="9.140625" style="9" customWidth="1"/>
-    <col min="9720" max="9720" width="8" style="9" customWidth="1"/>
-    <col min="9721" max="9722" width="6.7109375" style="9" customWidth="1"/>
-    <col min="9723" max="9723" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9724" max="9725" width="8" style="9" customWidth="1"/>
-    <col min="9726" max="9726" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9727" max="9728" width="6.7109375" style="9" customWidth="1"/>
-    <col min="9729" max="9729" width="13.140625" style="9" customWidth="1"/>
-    <col min="9730" max="9733" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9734" max="9735" width="8" style="9" customWidth="1"/>
-    <col min="9736" max="9736" width="11.28515625" style="9" customWidth="1"/>
-    <col min="9737" max="9739" width="8.42578125" style="9" customWidth="1"/>
-    <col min="9740" max="9742" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9743" max="9971" width="6" style="9"/>
-    <col min="9972" max="9972" width="3.140625" style="9" customWidth="1"/>
-    <col min="9973" max="9973" width="9.85546875" style="9" customWidth="1"/>
-    <col min="9974" max="9974" width="8" style="9" customWidth="1"/>
-    <col min="9975" max="9975" width="9.140625" style="9" customWidth="1"/>
-    <col min="9976" max="9976" width="8" style="9" customWidth="1"/>
-    <col min="9977" max="9978" width="6.7109375" style="9" customWidth="1"/>
-    <col min="9979" max="9979" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9980" max="9981" width="8" style="9" customWidth="1"/>
-    <col min="9982" max="9982" width="10.42578125" style="9" customWidth="1"/>
-    <col min="9983" max="9984" width="6.7109375" style="9" customWidth="1"/>
-    <col min="9985" max="9985" width="13.140625" style="9" customWidth="1"/>
-    <col min="9986" max="9989" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9990" max="9991" width="8" style="9" customWidth="1"/>
-    <col min="9992" max="9992" width="11.28515625" style="9" customWidth="1"/>
-    <col min="9993" max="9995" width="8.42578125" style="9" customWidth="1"/>
-    <col min="9996" max="9998" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9999" max="10227" width="6" style="9"/>
-    <col min="10228" max="10228" width="3.140625" style="9" customWidth="1"/>
-    <col min="10229" max="10229" width="9.85546875" style="9" customWidth="1"/>
-    <col min="10230" max="10230" width="8" style="9" customWidth="1"/>
-    <col min="10231" max="10231" width="9.140625" style="9" customWidth="1"/>
-    <col min="10232" max="10232" width="8" style="9" customWidth="1"/>
-    <col min="10233" max="10234" width="6.7109375" style="9" customWidth="1"/>
-    <col min="10235" max="10235" width="8.7109375" style="9" customWidth="1"/>
-    <col min="10236" max="10237" width="8" style="9" customWidth="1"/>
-    <col min="10238" max="10238" width="10.42578125" style="9" customWidth="1"/>
-    <col min="10239" max="10240" width="6.7109375" style="9" customWidth="1"/>
-    <col min="10241" max="10241" width="13.140625" style="9" customWidth="1"/>
-    <col min="10242" max="10245" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10246" max="10247" width="8" style="9" customWidth="1"/>
-    <col min="10248" max="10248" width="11.28515625" style="9" customWidth="1"/>
-    <col min="10249" max="10251" width="8.42578125" style="9" customWidth="1"/>
-    <col min="10252" max="10254" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10255" max="10483" width="6" style="9"/>
-    <col min="10484" max="10484" width="3.140625" style="9" customWidth="1"/>
-    <col min="10485" max="10485" width="9.85546875" style="9" customWidth="1"/>
-    <col min="10486" max="10486" width="8" style="9" customWidth="1"/>
-    <col min="10487" max="10487" width="9.140625" style="9" customWidth="1"/>
-    <col min="10488" max="10488" width="8" style="9" customWidth="1"/>
-    <col min="10489" max="10490" width="6.7109375" style="9" customWidth="1"/>
-    <col min="10491" max="10491" width="8.7109375" style="9" customWidth="1"/>
-    <col min="10492" max="10493" width="8" style="9" customWidth="1"/>
-    <col min="10494" max="10494" width="10.42578125" style="9" customWidth="1"/>
-    <col min="10495" max="10496" width="6.7109375" style="9" customWidth="1"/>
-    <col min="10497" max="10497" width="13.140625" style="9" customWidth="1"/>
-    <col min="10498" max="10501" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10502" max="10503" width="8" style="9" customWidth="1"/>
-    <col min="10504" max="10504" width="11.28515625" style="9" customWidth="1"/>
-    <col min="10505" max="10507" width="8.42578125" style="9" customWidth="1"/>
-    <col min="10508" max="10510" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10511" max="10739" width="6" style="9"/>
-    <col min="10740" max="10740" width="3.140625" style="9" customWidth="1"/>
-    <col min="10741" max="10741" width="9.85546875" style="9" customWidth="1"/>
-    <col min="10742" max="10742" width="8" style="9" customWidth="1"/>
-    <col min="10743" max="10743" width="9.140625" style="9" customWidth="1"/>
-    <col min="10744" max="10744" width="8" style="9" customWidth="1"/>
-    <col min="10745" max="10746" width="6.7109375" style="9" customWidth="1"/>
-    <col min="10747" max="10747" width="8.7109375" style="9" customWidth="1"/>
-    <col min="10748" max="10749" width="8" style="9" customWidth="1"/>
-    <col min="10750" max="10750" width="10.42578125" style="9" customWidth="1"/>
-    <col min="10751" max="10752" width="6.7109375" style="9" customWidth="1"/>
-    <col min="10753" max="10753" width="13.140625" style="9" customWidth="1"/>
-    <col min="10754" max="10757" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10758" max="10759" width="8" style="9" customWidth="1"/>
-    <col min="10760" max="10760" width="11.28515625" style="9" customWidth="1"/>
-    <col min="10761" max="10763" width="8.42578125" style="9" customWidth="1"/>
-    <col min="10764" max="10766" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10767" max="10995" width="6" style="9"/>
-    <col min="10996" max="10996" width="3.140625" style="9" customWidth="1"/>
-    <col min="10997" max="10997" width="9.85546875" style="9" customWidth="1"/>
-    <col min="10998" max="10998" width="8" style="9" customWidth="1"/>
-    <col min="10999" max="10999" width="9.140625" style="9" customWidth="1"/>
-    <col min="11000" max="11000" width="8" style="9" customWidth="1"/>
-    <col min="11001" max="11002" width="6.7109375" style="9" customWidth="1"/>
-    <col min="11003" max="11003" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11004" max="11005" width="8" style="9" customWidth="1"/>
-    <col min="11006" max="11006" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11007" max="11008" width="6.7109375" style="9" customWidth="1"/>
-    <col min="11009" max="11009" width="13.140625" style="9" customWidth="1"/>
-    <col min="11010" max="11013" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11014" max="11015" width="8" style="9" customWidth="1"/>
-    <col min="11016" max="11016" width="11.28515625" style="9" customWidth="1"/>
-    <col min="11017" max="11019" width="8.42578125" style="9" customWidth="1"/>
-    <col min="11020" max="11022" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11023" max="11251" width="6" style="9"/>
-    <col min="11252" max="11252" width="3.140625" style="9" customWidth="1"/>
-    <col min="11253" max="11253" width="9.85546875" style="9" customWidth="1"/>
-    <col min="11254" max="11254" width="8" style="9" customWidth="1"/>
-    <col min="11255" max="11255" width="9.140625" style="9" customWidth="1"/>
-    <col min="11256" max="11256" width="8" style="9" customWidth="1"/>
-    <col min="11257" max="11258" width="6.7109375" style="9" customWidth="1"/>
-    <col min="11259" max="11259" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11260" max="11261" width="8" style="9" customWidth="1"/>
-    <col min="11262" max="11262" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11263" max="11264" width="6.7109375" style="9" customWidth="1"/>
-    <col min="11265" max="11265" width="13.140625" style="9" customWidth="1"/>
-    <col min="11266" max="11269" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11270" max="11271" width="8" style="9" customWidth="1"/>
-    <col min="11272" max="11272" width="11.28515625" style="9" customWidth="1"/>
-    <col min="11273" max="11275" width="8.42578125" style="9" customWidth="1"/>
-    <col min="11276" max="11278" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11279" max="11507" width="6" style="9"/>
-    <col min="11508" max="11508" width="3.140625" style="9" customWidth="1"/>
-    <col min="11509" max="11509" width="9.85546875" style="9" customWidth="1"/>
-    <col min="11510" max="11510" width="8" style="9" customWidth="1"/>
-    <col min="11511" max="11511" width="9.140625" style="9" customWidth="1"/>
-    <col min="11512" max="11512" width="8" style="9" customWidth="1"/>
-    <col min="11513" max="11514" width="6.7109375" style="9" customWidth="1"/>
-    <col min="11515" max="11515" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11516" max="11517" width="8" style="9" customWidth="1"/>
-    <col min="11518" max="11518" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11519" max="11520" width="6.7109375" style="9" customWidth="1"/>
-    <col min="11521" max="11521" width="13.140625" style="9" customWidth="1"/>
-    <col min="11522" max="11525" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11526" max="11527" width="8" style="9" customWidth="1"/>
-    <col min="11528" max="11528" width="11.28515625" style="9" customWidth="1"/>
-    <col min="11529" max="11531" width="8.42578125" style="9" customWidth="1"/>
-    <col min="11532" max="11534" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11535" max="11763" width="6" style="9"/>
-    <col min="11764" max="11764" width="3.140625" style="9" customWidth="1"/>
-    <col min="11765" max="11765" width="9.85546875" style="9" customWidth="1"/>
-    <col min="11766" max="11766" width="8" style="9" customWidth="1"/>
-    <col min="11767" max="11767" width="9.140625" style="9" customWidth="1"/>
-    <col min="11768" max="11768" width="8" style="9" customWidth="1"/>
-    <col min="11769" max="11770" width="6.7109375" style="9" customWidth="1"/>
-    <col min="11771" max="11771" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11772" max="11773" width="8" style="9" customWidth="1"/>
-    <col min="11774" max="11774" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11775" max="11776" width="6.7109375" style="9" customWidth="1"/>
-    <col min="11777" max="11777" width="13.140625" style="9" customWidth="1"/>
-    <col min="11778" max="11781" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11782" max="11783" width="8" style="9" customWidth="1"/>
-    <col min="11784" max="11784" width="11.28515625" style="9" customWidth="1"/>
-    <col min="11785" max="11787" width="8.42578125" style="9" customWidth="1"/>
-    <col min="11788" max="11790" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11791" max="12019" width="6" style="9"/>
-    <col min="12020" max="12020" width="3.140625" style="9" customWidth="1"/>
-    <col min="12021" max="12021" width="9.85546875" style="9" customWidth="1"/>
-    <col min="12022" max="12022" width="8" style="9" customWidth="1"/>
-    <col min="12023" max="12023" width="9.140625" style="9" customWidth="1"/>
-    <col min="12024" max="12024" width="8" style="9" customWidth="1"/>
-    <col min="12025" max="12026" width="6.7109375" style="9" customWidth="1"/>
-    <col min="12027" max="12027" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12028" max="12029" width="8" style="9" customWidth="1"/>
-    <col min="12030" max="12030" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12031" max="12032" width="6.7109375" style="9" customWidth="1"/>
-    <col min="12033" max="12033" width="13.140625" style="9" customWidth="1"/>
-    <col min="12034" max="12037" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12038" max="12039" width="8" style="9" customWidth="1"/>
-    <col min="12040" max="12040" width="11.28515625" style="9" customWidth="1"/>
-    <col min="12041" max="12043" width="8.42578125" style="9" customWidth="1"/>
-    <col min="12044" max="12046" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12047" max="12275" width="6" style="9"/>
-    <col min="12276" max="12276" width="3.140625" style="9" customWidth="1"/>
-    <col min="12277" max="12277" width="9.85546875" style="9" customWidth="1"/>
-    <col min="12278" max="12278" width="8" style="9" customWidth="1"/>
-    <col min="12279" max="12279" width="9.140625" style="9" customWidth="1"/>
-    <col min="12280" max="12280" width="8" style="9" customWidth="1"/>
-    <col min="12281" max="12282" width="6.7109375" style="9" customWidth="1"/>
-    <col min="12283" max="12283" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12284" max="12285" width="8" style="9" customWidth="1"/>
-    <col min="12286" max="12286" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12287" max="12288" width="6.7109375" style="9" customWidth="1"/>
-    <col min="12289" max="12289" width="13.140625" style="9" customWidth="1"/>
-    <col min="12290" max="12293" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12294" max="12295" width="8" style="9" customWidth="1"/>
-    <col min="12296" max="12296" width="11.28515625" style="9" customWidth="1"/>
-    <col min="12297" max="12299" width="8.42578125" style="9" customWidth="1"/>
-    <col min="12300" max="12302" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12303" max="12531" width="6" style="9"/>
-    <col min="12532" max="12532" width="3.140625" style="9" customWidth="1"/>
-    <col min="12533" max="12533" width="9.85546875" style="9" customWidth="1"/>
-    <col min="12534" max="12534" width="8" style="9" customWidth="1"/>
-    <col min="12535" max="12535" width="9.140625" style="9" customWidth="1"/>
-    <col min="12536" max="12536" width="8" style="9" customWidth="1"/>
-    <col min="12537" max="12538" width="6.7109375" style="9" customWidth="1"/>
-    <col min="12539" max="12539" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12540" max="12541" width="8" style="9" customWidth="1"/>
-    <col min="12542" max="12542" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12543" max="12544" width="6.7109375" style="9" customWidth="1"/>
-    <col min="12545" max="12545" width="13.140625" style="9" customWidth="1"/>
-    <col min="12546" max="12549" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12550" max="12551" width="8" style="9" customWidth="1"/>
-    <col min="12552" max="12552" width="11.28515625" style="9" customWidth="1"/>
-    <col min="12553" max="12555" width="8.42578125" style="9" customWidth="1"/>
-    <col min="12556" max="12558" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12559" max="12787" width="6" style="9"/>
-    <col min="12788" max="12788" width="3.140625" style="9" customWidth="1"/>
-    <col min="12789" max="12789" width="9.85546875" style="9" customWidth="1"/>
-    <col min="12790" max="12790" width="8" style="9" customWidth="1"/>
-    <col min="12791" max="12791" width="9.140625" style="9" customWidth="1"/>
-    <col min="12792" max="12792" width="8" style="9" customWidth="1"/>
-    <col min="12793" max="12794" width="6.7109375" style="9" customWidth="1"/>
-    <col min="12795" max="12795" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12796" max="12797" width="8" style="9" customWidth="1"/>
-    <col min="12798" max="12798" width="10.42578125" style="9" customWidth="1"/>
-    <col min="12799" max="12800" width="6.7109375" style="9" customWidth="1"/>
-    <col min="12801" max="12801" width="13.140625" style="9" customWidth="1"/>
-    <col min="12802" max="12805" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12806" max="12807" width="8" style="9" customWidth="1"/>
-    <col min="12808" max="12808" width="11.28515625" style="9" customWidth="1"/>
-    <col min="12809" max="12811" width="8.42578125" style="9" customWidth="1"/>
-    <col min="12812" max="12814" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12815" max="13043" width="6" style="9"/>
-    <col min="13044" max="13044" width="3.140625" style="9" customWidth="1"/>
-    <col min="13045" max="13045" width="9.85546875" style="9" customWidth="1"/>
-    <col min="13046" max="13046" width="8" style="9" customWidth="1"/>
-    <col min="13047" max="13047" width="9.140625" style="9" customWidth="1"/>
-    <col min="13048" max="13048" width="8" style="9" customWidth="1"/>
-    <col min="13049" max="13050" width="6.7109375" style="9" customWidth="1"/>
-    <col min="13051" max="13051" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13052" max="13053" width="8" style="9" customWidth="1"/>
-    <col min="13054" max="13054" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13055" max="13056" width="6.7109375" style="9" customWidth="1"/>
-    <col min="13057" max="13057" width="13.140625" style="9" customWidth="1"/>
-    <col min="13058" max="13061" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13062" max="13063" width="8" style="9" customWidth="1"/>
-    <col min="13064" max="13064" width="11.28515625" style="9" customWidth="1"/>
-    <col min="13065" max="13067" width="8.42578125" style="9" customWidth="1"/>
-    <col min="13068" max="13070" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13071" max="13299" width="6" style="9"/>
-    <col min="13300" max="13300" width="3.140625" style="9" customWidth="1"/>
-    <col min="13301" max="13301" width="9.85546875" style="9" customWidth="1"/>
-    <col min="13302" max="13302" width="8" style="9" customWidth="1"/>
-    <col min="13303" max="13303" width="9.140625" style="9" customWidth="1"/>
-    <col min="13304" max="13304" width="8" style="9" customWidth="1"/>
-    <col min="13305" max="13306" width="6.7109375" style="9" customWidth="1"/>
-    <col min="13307" max="13307" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13308" max="13309" width="8" style="9" customWidth="1"/>
-    <col min="13310" max="13310" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13311" max="13312" width="6.7109375" style="9" customWidth="1"/>
-    <col min="13313" max="13313" width="13.140625" style="9" customWidth="1"/>
-    <col min="13314" max="13317" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13318" max="13319" width="8" style="9" customWidth="1"/>
-    <col min="13320" max="13320" width="11.28515625" style="9" customWidth="1"/>
-    <col min="13321" max="13323" width="8.42578125" style="9" customWidth="1"/>
-    <col min="13324" max="13326" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13327" max="13555" width="6" style="9"/>
-    <col min="13556" max="13556" width="3.140625" style="9" customWidth="1"/>
-    <col min="13557" max="13557" width="9.85546875" style="9" customWidth="1"/>
-    <col min="13558" max="13558" width="8" style="9" customWidth="1"/>
-    <col min="13559" max="13559" width="9.140625" style="9" customWidth="1"/>
-    <col min="13560" max="13560" width="8" style="9" customWidth="1"/>
-    <col min="13561" max="13562" width="6.7109375" style="9" customWidth="1"/>
-    <col min="13563" max="13563" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13564" max="13565" width="8" style="9" customWidth="1"/>
-    <col min="13566" max="13566" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13567" max="13568" width="6.7109375" style="9" customWidth="1"/>
-    <col min="13569" max="13569" width="13.140625" style="9" customWidth="1"/>
-    <col min="13570" max="13573" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13574" max="13575" width="8" style="9" customWidth="1"/>
-    <col min="13576" max="13576" width="11.28515625" style="9" customWidth="1"/>
-    <col min="13577" max="13579" width="8.42578125" style="9" customWidth="1"/>
-    <col min="13580" max="13582" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13583" max="13811" width="6" style="9"/>
-    <col min="13812" max="13812" width="3.140625" style="9" customWidth="1"/>
-    <col min="13813" max="13813" width="9.85546875" style="9" customWidth="1"/>
-    <col min="13814" max="13814" width="8" style="9" customWidth="1"/>
-    <col min="13815" max="13815" width="9.140625" style="9" customWidth="1"/>
-    <col min="13816" max="13816" width="8" style="9" customWidth="1"/>
-    <col min="13817" max="13818" width="6.7109375" style="9" customWidth="1"/>
-    <col min="13819" max="13819" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13820" max="13821" width="8" style="9" customWidth="1"/>
-    <col min="13822" max="13822" width="10.42578125" style="9" customWidth="1"/>
-    <col min="13823" max="13824" width="6.7109375" style="9" customWidth="1"/>
-    <col min="13825" max="13825" width="13.140625" style="9" customWidth="1"/>
-    <col min="13826" max="13829" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13830" max="13831" width="8" style="9" customWidth="1"/>
-    <col min="13832" max="13832" width="11.28515625" style="9" customWidth="1"/>
-    <col min="13833" max="13835" width="8.42578125" style="9" customWidth="1"/>
-    <col min="13836" max="13838" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13839" max="14067" width="6" style="9"/>
-    <col min="14068" max="14068" width="3.140625" style="9" customWidth="1"/>
-    <col min="14069" max="14069" width="9.85546875" style="9" customWidth="1"/>
-    <col min="14070" max="14070" width="8" style="9" customWidth="1"/>
-    <col min="14071" max="14071" width="9.140625" style="9" customWidth="1"/>
-    <col min="14072" max="14072" width="8" style="9" customWidth="1"/>
-    <col min="14073" max="14074" width="6.7109375" style="9" customWidth="1"/>
-    <col min="14075" max="14075" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14076" max="14077" width="8" style="9" customWidth="1"/>
-    <col min="14078" max="14078" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14079" max="14080" width="6.7109375" style="9" customWidth="1"/>
-    <col min="14081" max="14081" width="13.140625" style="9" customWidth="1"/>
-    <col min="14082" max="14085" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14086" max="14087" width="8" style="9" customWidth="1"/>
-    <col min="14088" max="14088" width="11.28515625" style="9" customWidth="1"/>
-    <col min="14089" max="14091" width="8.42578125" style="9" customWidth="1"/>
-    <col min="14092" max="14094" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14095" max="14323" width="6" style="9"/>
-    <col min="14324" max="14324" width="3.140625" style="9" customWidth="1"/>
-    <col min="14325" max="14325" width="9.85546875" style="9" customWidth="1"/>
-    <col min="14326" max="14326" width="8" style="9" customWidth="1"/>
-    <col min="14327" max="14327" width="9.140625" style="9" customWidth="1"/>
-    <col min="14328" max="14328" width="8" style="9" customWidth="1"/>
-    <col min="14329" max="14330" width="6.7109375" style="9" customWidth="1"/>
-    <col min="14331" max="14331" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14332" max="14333" width="8" style="9" customWidth="1"/>
-    <col min="14334" max="14334" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14335" max="14336" width="6.7109375" style="9" customWidth="1"/>
-    <col min="14337" max="14337" width="13.140625" style="9" customWidth="1"/>
-    <col min="14338" max="14341" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14342" max="14343" width="8" style="9" customWidth="1"/>
-    <col min="14344" max="14344" width="11.28515625" style="9" customWidth="1"/>
-    <col min="14345" max="14347" width="8.42578125" style="9" customWidth="1"/>
-    <col min="14348" max="14350" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14351" max="14579" width="6" style="9"/>
-    <col min="14580" max="14580" width="3.140625" style="9" customWidth="1"/>
-    <col min="14581" max="14581" width="9.85546875" style="9" customWidth="1"/>
-    <col min="14582" max="14582" width="8" style="9" customWidth="1"/>
-    <col min="14583" max="14583" width="9.140625" style="9" customWidth="1"/>
-    <col min="14584" max="14584" width="8" style="9" customWidth="1"/>
-    <col min="14585" max="14586" width="6.7109375" style="9" customWidth="1"/>
-    <col min="14587" max="14587" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14588" max="14589" width="8" style="9" customWidth="1"/>
-    <col min="14590" max="14590" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14591" max="14592" width="6.7109375" style="9" customWidth="1"/>
-    <col min="14593" max="14593" width="13.140625" style="9" customWidth="1"/>
-    <col min="14594" max="14597" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14598" max="14599" width="8" style="9" customWidth="1"/>
-    <col min="14600" max="14600" width="11.28515625" style="9" customWidth="1"/>
-    <col min="14601" max="14603" width="8.42578125" style="9" customWidth="1"/>
-    <col min="14604" max="14606" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14607" max="14835" width="6" style="9"/>
-    <col min="14836" max="14836" width="3.140625" style="9" customWidth="1"/>
-    <col min="14837" max="14837" width="9.85546875" style="9" customWidth="1"/>
-    <col min="14838" max="14838" width="8" style="9" customWidth="1"/>
-    <col min="14839" max="14839" width="9.140625" style="9" customWidth="1"/>
-    <col min="14840" max="14840" width="8" style="9" customWidth="1"/>
-    <col min="14841" max="14842" width="6.7109375" style="9" customWidth="1"/>
-    <col min="14843" max="14843" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14844" max="14845" width="8" style="9" customWidth="1"/>
-    <col min="14846" max="14846" width="10.42578125" style="9" customWidth="1"/>
-    <col min="14847" max="14848" width="6.7109375" style="9" customWidth="1"/>
-    <col min="14849" max="14849" width="13.140625" style="9" customWidth="1"/>
-    <col min="14850" max="14853" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14854" max="14855" width="8" style="9" customWidth="1"/>
-    <col min="14856" max="14856" width="11.28515625" style="9" customWidth="1"/>
-    <col min="14857" max="14859" width="8.42578125" style="9" customWidth="1"/>
-    <col min="14860" max="14862" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14863" max="15091" width="6" style="9"/>
-    <col min="15092" max="15092" width="3.140625" style="9" customWidth="1"/>
-    <col min="15093" max="15093" width="9.85546875" style="9" customWidth="1"/>
-    <col min="15094" max="15094" width="8" style="9" customWidth="1"/>
-    <col min="15095" max="15095" width="9.140625" style="9" customWidth="1"/>
-    <col min="15096" max="15096" width="8" style="9" customWidth="1"/>
-    <col min="15097" max="15098" width="6.7109375" style="9" customWidth="1"/>
-    <col min="15099" max="15099" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15100" max="15101" width="8" style="9" customWidth="1"/>
-    <col min="15102" max="15102" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15103" max="15104" width="6.7109375" style="9" customWidth="1"/>
-    <col min="15105" max="15105" width="13.140625" style="9" customWidth="1"/>
-    <col min="15106" max="15109" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15110" max="15111" width="8" style="9" customWidth="1"/>
-    <col min="15112" max="15112" width="11.28515625" style="9" customWidth="1"/>
-    <col min="15113" max="15115" width="8.42578125" style="9" customWidth="1"/>
-    <col min="15116" max="15118" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15119" max="15347" width="6" style="9"/>
-    <col min="15348" max="15348" width="3.140625" style="9" customWidth="1"/>
-    <col min="15349" max="15349" width="9.85546875" style="9" customWidth="1"/>
-    <col min="15350" max="15350" width="8" style="9" customWidth="1"/>
-    <col min="15351" max="15351" width="9.140625" style="9" customWidth="1"/>
-    <col min="15352" max="15352" width="8" style="9" customWidth="1"/>
-    <col min="15353" max="15354" width="6.7109375" style="9" customWidth="1"/>
-    <col min="15355" max="15355" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15356" max="15357" width="8" style="9" customWidth="1"/>
-    <col min="15358" max="15358" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15359" max="15360" width="6.7109375" style="9" customWidth="1"/>
-    <col min="15361" max="15361" width="13.140625" style="9" customWidth="1"/>
-    <col min="15362" max="15365" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15366" max="15367" width="8" style="9" customWidth="1"/>
-    <col min="15368" max="15368" width="11.28515625" style="9" customWidth="1"/>
-    <col min="15369" max="15371" width="8.42578125" style="9" customWidth="1"/>
-    <col min="15372" max="15374" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15375" max="15603" width="6" style="9"/>
-    <col min="15604" max="15604" width="3.140625" style="9" customWidth="1"/>
-    <col min="15605" max="15605" width="9.85546875" style="9" customWidth="1"/>
-    <col min="15606" max="15606" width="8" style="9" customWidth="1"/>
-    <col min="15607" max="15607" width="9.140625" style="9" customWidth="1"/>
-    <col min="15608" max="15608" width="8" style="9" customWidth="1"/>
-    <col min="15609" max="15610" width="6.7109375" style="9" customWidth="1"/>
-    <col min="15611" max="15611" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15612" max="15613" width="8" style="9" customWidth="1"/>
-    <col min="15614" max="15614" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15615" max="15616" width="6.7109375" style="9" customWidth="1"/>
-    <col min="15617" max="15617" width="13.140625" style="9" customWidth="1"/>
-    <col min="15618" max="15621" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15622" max="15623" width="8" style="9" customWidth="1"/>
-    <col min="15624" max="15624" width="11.28515625" style="9" customWidth="1"/>
-    <col min="15625" max="15627" width="8.42578125" style="9" customWidth="1"/>
-    <col min="15628" max="15630" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15631" max="15859" width="6" style="9"/>
-    <col min="15860" max="15860" width="3.140625" style="9" customWidth="1"/>
-    <col min="15861" max="15861" width="9.85546875" style="9" customWidth="1"/>
-    <col min="15862" max="15862" width="8" style="9" customWidth="1"/>
-    <col min="15863" max="15863" width="9.140625" style="9" customWidth="1"/>
-    <col min="15864" max="15864" width="8" style="9" customWidth="1"/>
-    <col min="15865" max="15866" width="6.7109375" style="9" customWidth="1"/>
-    <col min="15867" max="15867" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15868" max="15869" width="8" style="9" customWidth="1"/>
-    <col min="15870" max="15870" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15871" max="15872" width="6.7109375" style="9" customWidth="1"/>
-    <col min="15873" max="15873" width="13.140625" style="9" customWidth="1"/>
-    <col min="15874" max="15877" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15878" max="15879" width="8" style="9" customWidth="1"/>
-    <col min="15880" max="15880" width="11.28515625" style="9" customWidth="1"/>
-    <col min="15881" max="15883" width="8.42578125" style="9" customWidth="1"/>
-    <col min="15884" max="15886" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15887" max="16115" width="6" style="9"/>
-    <col min="16116" max="16116" width="3.140625" style="9" customWidth="1"/>
-    <col min="16117" max="16117" width="9.85546875" style="9" customWidth="1"/>
-    <col min="16118" max="16118" width="8" style="9" customWidth="1"/>
-    <col min="16119" max="16119" width="9.140625" style="9" customWidth="1"/>
-    <col min="16120" max="16120" width="8" style="9" customWidth="1"/>
-    <col min="16121" max="16122" width="6.7109375" style="9" customWidth="1"/>
-    <col min="16123" max="16123" width="8.7109375" style="9" customWidth="1"/>
-    <col min="16124" max="16125" width="8" style="9" customWidth="1"/>
-    <col min="16126" max="16126" width="10.42578125" style="9" customWidth="1"/>
-    <col min="16127" max="16128" width="6.7109375" style="9" customWidth="1"/>
-    <col min="16129" max="16129" width="13.140625" style="9" customWidth="1"/>
-    <col min="16130" max="16133" width="7.7109375" style="9" customWidth="1"/>
-    <col min="16134" max="16135" width="8" style="9" customWidth="1"/>
-    <col min="16136" max="16136" width="11.28515625" style="9" customWidth="1"/>
-    <col min="16137" max="16139" width="8.42578125" style="9" customWidth="1"/>
-    <col min="16140" max="16142" width="7.7109375" style="9" customWidth="1"/>
-    <col min="16143" max="16384" width="6" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="72"/>
-    </row>
-    <row r="3" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="34"/>
-    </row>
-    <row r="4" spans="2:23" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="79"/>
-    </row>
-    <row r="5" spans="2:23" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="67"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="41"/>
-    </row>
-    <row r="6" spans="2:23" ht="249" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="88"/>
-    </row>
-    <row r="7" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="88"/>
-    </row>
-    <row r="8" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="88"/>
-    </row>
-    <row r="9" spans="2:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="88"/>
-    </row>
-    <row r="10" spans="2:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="88"/>
-    </row>
-    <row r="11" spans="2:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="2:23" s="24" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="V12" s="90"/>
-      <c r="W12" s="91"/>
-    </row>
-    <row r="13" spans="2:23" s="24" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="95"/>
-      <c r="W13" s="96"/>
-    </row>
-    <row r="14" spans="2:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="V14" s="84"/>
-      <c r="W14" s="99"/>
-    </row>
-    <row r="15" spans="2:23" s="23" customFormat="1" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="V15" s="101"/>
-      <c r="W15" s="102"/>
-    </row>
-    <row r="16" spans="2:23" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="99"/>
-    </row>
-    <row r="17" spans="2:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="99"/>
-    </row>
-    <row r="18" spans="2:23" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="99"/>
-    </row>
-    <row r="19" spans="2:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-    </row>
-    <row r="20" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:23" s="24" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="91"/>
-    </row>
-    <row r="22" spans="2:23" s="24" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="96"/>
-    </row>
-    <row r="23" spans="2:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="99"/>
-    </row>
-    <row r="24" spans="2:23" s="23" customFormat="1" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="102"/>
-    </row>
-    <row r="25" spans="2:23" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="99"/>
-    </row>
-    <row r="26" spans="2:23" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="105"/>
-    </row>
-    <row r="27" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="38"/>
-    </row>
-    <row r="33" spans="2:20" s="29" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="107"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="108"/>
-    </row>
-    <row r="34" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
-    </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="31"/>
-    </row>
-    <row r="65" spans="17:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="Q65" s="4"/>
-    </row>
-    <row r="113" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B113" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C5:E5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CE0EA2-531B-4F75-92E9-7C13ACFEBD71}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC69" sqref="AC69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610D311B-49D2-4224-BDF6-2670E09EB82C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD35227-B5B4-4658-AD0C-BE8858FBD97A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V62" sqref="V62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7723D05E-F6B5-4206-A197-FBC6170C66D3}">
-  <dimension ref="B1:W112"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="58" style="9" customWidth="1"/>
-    <col min="6" max="6" width="69.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="63.5703125" style="9" customWidth="1"/>
     <col min="11" max="12" width="8" style="9" customWidth="1"/>
     <col min="13" max="13" width="19.140625" style="9" customWidth="1"/>
     <col min="14" max="14" width="40.140625" style="9" customWidth="1"/>
@@ -20116,6 +18084,1887 @@
         <v>2</v>
       </c>
       <c r="C3" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="34"/>
+    </row>
+    <row r="4" spans="2:23" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="79"/>
+    </row>
+    <row r="5" spans="2:23" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="67"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="41"/>
+    </row>
+    <row r="6" spans="2:23" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="88"/>
+    </row>
+    <row r="7" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="88"/>
+    </row>
+    <row r="8" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="88"/>
+    </row>
+    <row r="9" spans="2:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="88"/>
+    </row>
+    <row r="10" spans="2:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="88"/>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:23" s="24" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="90"/>
+      <c r="W12" s="91"/>
+    </row>
+    <row r="13" spans="2:23" s="24" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="95"/>
+      <c r="W13" s="96"/>
+    </row>
+    <row r="14" spans="2:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="84"/>
+      <c r="W14" s="99"/>
+    </row>
+    <row r="15" spans="2:23" s="23" customFormat="1" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="101"/>
+      <c r="W15" s="102"/>
+    </row>
+    <row r="16" spans="2:23" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="99"/>
+    </row>
+    <row r="17" spans="2:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="99"/>
+    </row>
+    <row r="18" spans="2:23" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="99"/>
+    </row>
+    <row r="19" spans="2:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+    </row>
+    <row r="20" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:23" s="24" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
+    </row>
+    <row r="22" spans="2:23" s="24" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="96"/>
+    </row>
+    <row r="23" spans="2:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="99"/>
+    </row>
+    <row r="24" spans="2:23" s="23" customFormat="1" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="102"/>
+    </row>
+    <row r="25" spans="2:23" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="99"/>
+    </row>
+    <row r="26" spans="2:23" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="105"/>
+    </row>
+    <row r="27" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:23" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="38"/>
+    </row>
+    <row r="33" spans="2:20" s="29" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="25"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="107"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="108"/>
+    </row>
+    <row r="34" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="B35" s="30"/>
+    </row>
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="31"/>
+    </row>
+    <row r="65" spans="17:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="113" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B113" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 CONFIDENTIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CE0EA2-531B-4F75-92E9-7C13ACFEBD71}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC69" sqref="AC69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 CONFIDENTIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610D311B-49D2-4224-BDF6-2670E09EB82C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 CONFIDENTIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD35227-B5B4-4658-AD0C-BE8858FBD97A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V62" sqref="V62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 CONFIDENTIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7723D05E-F6B5-4206-A197-FBC6170C66D3}">
+  <dimension ref="B1:W112"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="58" style="9" customWidth="1"/>
+    <col min="6" max="6" width="69.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="63.5703125" style="9" customWidth="1"/>
+    <col min="11" max="12" width="8" style="9" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="40.140625" style="9" customWidth="1"/>
+    <col min="15" max="16" width="6.7109375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="6" style="9"/>
+    <col min="19" max="19" width="9.28515625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="9" customWidth="1"/>
+    <col min="21" max="243" width="6" style="9"/>
+    <col min="244" max="244" width="3.140625" style="9" customWidth="1"/>
+    <col min="245" max="245" width="9.85546875" style="9" customWidth="1"/>
+    <col min="246" max="246" width="8" style="9" customWidth="1"/>
+    <col min="247" max="247" width="9.140625" style="9" customWidth="1"/>
+    <col min="248" max="248" width="8" style="9" customWidth="1"/>
+    <col min="249" max="250" width="6.7109375" style="9" customWidth="1"/>
+    <col min="251" max="251" width="8.7109375" style="9" customWidth="1"/>
+    <col min="252" max="253" width="8" style="9" customWidth="1"/>
+    <col min="254" max="254" width="10.42578125" style="9" customWidth="1"/>
+    <col min="255" max="256" width="6.7109375" style="9" customWidth="1"/>
+    <col min="257" max="257" width="13.140625" style="9" customWidth="1"/>
+    <col min="258" max="261" width="7.7109375" style="9" customWidth="1"/>
+    <col min="262" max="263" width="8" style="9" customWidth="1"/>
+    <col min="264" max="264" width="11.28515625" style="9" customWidth="1"/>
+    <col min="265" max="267" width="8.42578125" style="9" customWidth="1"/>
+    <col min="268" max="270" width="7.7109375" style="9" customWidth="1"/>
+    <col min="271" max="499" width="6" style="9"/>
+    <col min="500" max="500" width="3.140625" style="9" customWidth="1"/>
+    <col min="501" max="501" width="9.85546875" style="9" customWidth="1"/>
+    <col min="502" max="502" width="8" style="9" customWidth="1"/>
+    <col min="503" max="503" width="9.140625" style="9" customWidth="1"/>
+    <col min="504" max="504" width="8" style="9" customWidth="1"/>
+    <col min="505" max="506" width="6.7109375" style="9" customWidth="1"/>
+    <col min="507" max="507" width="8.7109375" style="9" customWidth="1"/>
+    <col min="508" max="509" width="8" style="9" customWidth="1"/>
+    <col min="510" max="510" width="10.42578125" style="9" customWidth="1"/>
+    <col min="511" max="512" width="6.7109375" style="9" customWidth="1"/>
+    <col min="513" max="513" width="13.140625" style="9" customWidth="1"/>
+    <col min="514" max="517" width="7.7109375" style="9" customWidth="1"/>
+    <col min="518" max="519" width="8" style="9" customWidth="1"/>
+    <col min="520" max="520" width="11.28515625" style="9" customWidth="1"/>
+    <col min="521" max="523" width="8.42578125" style="9" customWidth="1"/>
+    <col min="524" max="526" width="7.7109375" style="9" customWidth="1"/>
+    <col min="527" max="755" width="6" style="9"/>
+    <col min="756" max="756" width="3.140625" style="9" customWidth="1"/>
+    <col min="757" max="757" width="9.85546875" style="9" customWidth="1"/>
+    <col min="758" max="758" width="8" style="9" customWidth="1"/>
+    <col min="759" max="759" width="9.140625" style="9" customWidth="1"/>
+    <col min="760" max="760" width="8" style="9" customWidth="1"/>
+    <col min="761" max="762" width="6.7109375" style="9" customWidth="1"/>
+    <col min="763" max="763" width="8.7109375" style="9" customWidth="1"/>
+    <col min="764" max="765" width="8" style="9" customWidth="1"/>
+    <col min="766" max="766" width="10.42578125" style="9" customWidth="1"/>
+    <col min="767" max="768" width="6.7109375" style="9" customWidth="1"/>
+    <col min="769" max="769" width="13.140625" style="9" customWidth="1"/>
+    <col min="770" max="773" width="7.7109375" style="9" customWidth="1"/>
+    <col min="774" max="775" width="8" style="9" customWidth="1"/>
+    <col min="776" max="776" width="11.28515625" style="9" customWidth="1"/>
+    <col min="777" max="779" width="8.42578125" style="9" customWidth="1"/>
+    <col min="780" max="782" width="7.7109375" style="9" customWidth="1"/>
+    <col min="783" max="1011" width="6" style="9"/>
+    <col min="1012" max="1012" width="3.140625" style="9" customWidth="1"/>
+    <col min="1013" max="1013" width="9.85546875" style="9" customWidth="1"/>
+    <col min="1014" max="1014" width="8" style="9" customWidth="1"/>
+    <col min="1015" max="1015" width="9.140625" style="9" customWidth="1"/>
+    <col min="1016" max="1016" width="8" style="9" customWidth="1"/>
+    <col min="1017" max="1018" width="6.7109375" style="9" customWidth="1"/>
+    <col min="1019" max="1019" width="8.7109375" style="9" customWidth="1"/>
+    <col min="1020" max="1021" width="8" style="9" customWidth="1"/>
+    <col min="1022" max="1022" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1023" max="1024" width="6.7109375" style="9" customWidth="1"/>
+    <col min="1025" max="1025" width="13.140625" style="9" customWidth="1"/>
+    <col min="1026" max="1029" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1030" max="1031" width="8" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="11.28515625" style="9" customWidth="1"/>
+    <col min="1033" max="1035" width="8.42578125" style="9" customWidth="1"/>
+    <col min="1036" max="1038" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1039" max="1267" width="6" style="9"/>
+    <col min="1268" max="1268" width="3.140625" style="9" customWidth="1"/>
+    <col min="1269" max="1269" width="9.85546875" style="9" customWidth="1"/>
+    <col min="1270" max="1270" width="8" style="9" customWidth="1"/>
+    <col min="1271" max="1271" width="9.140625" style="9" customWidth="1"/>
+    <col min="1272" max="1272" width="8" style="9" customWidth="1"/>
+    <col min="1273" max="1274" width="6.7109375" style="9" customWidth="1"/>
+    <col min="1275" max="1275" width="8.7109375" style="9" customWidth="1"/>
+    <col min="1276" max="1277" width="8" style="9" customWidth="1"/>
+    <col min="1278" max="1278" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1279" max="1280" width="6.7109375" style="9" customWidth="1"/>
+    <col min="1281" max="1281" width="13.140625" style="9" customWidth="1"/>
+    <col min="1282" max="1285" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1286" max="1287" width="8" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="11.28515625" style="9" customWidth="1"/>
+    <col min="1289" max="1291" width="8.42578125" style="9" customWidth="1"/>
+    <col min="1292" max="1294" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1295" max="1523" width="6" style="9"/>
+    <col min="1524" max="1524" width="3.140625" style="9" customWidth="1"/>
+    <col min="1525" max="1525" width="9.85546875" style="9" customWidth="1"/>
+    <col min="1526" max="1526" width="8" style="9" customWidth="1"/>
+    <col min="1527" max="1527" width="9.140625" style="9" customWidth="1"/>
+    <col min="1528" max="1528" width="8" style="9" customWidth="1"/>
+    <col min="1529" max="1530" width="6.7109375" style="9" customWidth="1"/>
+    <col min="1531" max="1531" width="8.7109375" style="9" customWidth="1"/>
+    <col min="1532" max="1533" width="8" style="9" customWidth="1"/>
+    <col min="1534" max="1534" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1535" max="1536" width="6.7109375" style="9" customWidth="1"/>
+    <col min="1537" max="1537" width="13.140625" style="9" customWidth="1"/>
+    <col min="1538" max="1541" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1542" max="1543" width="8" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="11.28515625" style="9" customWidth="1"/>
+    <col min="1545" max="1547" width="8.42578125" style="9" customWidth="1"/>
+    <col min="1548" max="1550" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1551" max="1779" width="6" style="9"/>
+    <col min="1780" max="1780" width="3.140625" style="9" customWidth="1"/>
+    <col min="1781" max="1781" width="9.85546875" style="9" customWidth="1"/>
+    <col min="1782" max="1782" width="8" style="9" customWidth="1"/>
+    <col min="1783" max="1783" width="9.140625" style="9" customWidth="1"/>
+    <col min="1784" max="1784" width="8" style="9" customWidth="1"/>
+    <col min="1785" max="1786" width="6.7109375" style="9" customWidth="1"/>
+    <col min="1787" max="1787" width="8.7109375" style="9" customWidth="1"/>
+    <col min="1788" max="1789" width="8" style="9" customWidth="1"/>
+    <col min="1790" max="1790" width="10.42578125" style="9" customWidth="1"/>
+    <col min="1791" max="1792" width="6.7109375" style="9" customWidth="1"/>
+    <col min="1793" max="1793" width="13.140625" style="9" customWidth="1"/>
+    <col min="1794" max="1797" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1798" max="1799" width="8" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="11.28515625" style="9" customWidth="1"/>
+    <col min="1801" max="1803" width="8.42578125" style="9" customWidth="1"/>
+    <col min="1804" max="1806" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1807" max="2035" width="6" style="9"/>
+    <col min="2036" max="2036" width="3.140625" style="9" customWidth="1"/>
+    <col min="2037" max="2037" width="9.85546875" style="9" customWidth="1"/>
+    <col min="2038" max="2038" width="8" style="9" customWidth="1"/>
+    <col min="2039" max="2039" width="9.140625" style="9" customWidth="1"/>
+    <col min="2040" max="2040" width="8" style="9" customWidth="1"/>
+    <col min="2041" max="2042" width="6.7109375" style="9" customWidth="1"/>
+    <col min="2043" max="2043" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2044" max="2045" width="8" style="9" customWidth="1"/>
+    <col min="2046" max="2046" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2047" max="2048" width="6.7109375" style="9" customWidth="1"/>
+    <col min="2049" max="2049" width="13.140625" style="9" customWidth="1"/>
+    <col min="2050" max="2053" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2054" max="2055" width="8" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="11.28515625" style="9" customWidth="1"/>
+    <col min="2057" max="2059" width="8.42578125" style="9" customWidth="1"/>
+    <col min="2060" max="2062" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2063" max="2291" width="6" style="9"/>
+    <col min="2292" max="2292" width="3.140625" style="9" customWidth="1"/>
+    <col min="2293" max="2293" width="9.85546875" style="9" customWidth="1"/>
+    <col min="2294" max="2294" width="8" style="9" customWidth="1"/>
+    <col min="2295" max="2295" width="9.140625" style="9" customWidth="1"/>
+    <col min="2296" max="2296" width="8" style="9" customWidth="1"/>
+    <col min="2297" max="2298" width="6.7109375" style="9" customWidth="1"/>
+    <col min="2299" max="2299" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2300" max="2301" width="8" style="9" customWidth="1"/>
+    <col min="2302" max="2302" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2303" max="2304" width="6.7109375" style="9" customWidth="1"/>
+    <col min="2305" max="2305" width="13.140625" style="9" customWidth="1"/>
+    <col min="2306" max="2309" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2310" max="2311" width="8" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="11.28515625" style="9" customWidth="1"/>
+    <col min="2313" max="2315" width="8.42578125" style="9" customWidth="1"/>
+    <col min="2316" max="2318" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2319" max="2547" width="6" style="9"/>
+    <col min="2548" max="2548" width="3.140625" style="9" customWidth="1"/>
+    <col min="2549" max="2549" width="9.85546875" style="9" customWidth="1"/>
+    <col min="2550" max="2550" width="8" style="9" customWidth="1"/>
+    <col min="2551" max="2551" width="9.140625" style="9" customWidth="1"/>
+    <col min="2552" max="2552" width="8" style="9" customWidth="1"/>
+    <col min="2553" max="2554" width="6.7109375" style="9" customWidth="1"/>
+    <col min="2555" max="2555" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2556" max="2557" width="8" style="9" customWidth="1"/>
+    <col min="2558" max="2558" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2559" max="2560" width="6.7109375" style="9" customWidth="1"/>
+    <col min="2561" max="2561" width="13.140625" style="9" customWidth="1"/>
+    <col min="2562" max="2565" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2566" max="2567" width="8" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="11.28515625" style="9" customWidth="1"/>
+    <col min="2569" max="2571" width="8.42578125" style="9" customWidth="1"/>
+    <col min="2572" max="2574" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2575" max="2803" width="6" style="9"/>
+    <col min="2804" max="2804" width="3.140625" style="9" customWidth="1"/>
+    <col min="2805" max="2805" width="9.85546875" style="9" customWidth="1"/>
+    <col min="2806" max="2806" width="8" style="9" customWidth="1"/>
+    <col min="2807" max="2807" width="9.140625" style="9" customWidth="1"/>
+    <col min="2808" max="2808" width="8" style="9" customWidth="1"/>
+    <col min="2809" max="2810" width="6.7109375" style="9" customWidth="1"/>
+    <col min="2811" max="2811" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2812" max="2813" width="8" style="9" customWidth="1"/>
+    <col min="2814" max="2814" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2815" max="2816" width="6.7109375" style="9" customWidth="1"/>
+    <col min="2817" max="2817" width="13.140625" style="9" customWidth="1"/>
+    <col min="2818" max="2821" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2822" max="2823" width="8" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="11.28515625" style="9" customWidth="1"/>
+    <col min="2825" max="2827" width="8.42578125" style="9" customWidth="1"/>
+    <col min="2828" max="2830" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2831" max="3059" width="6" style="9"/>
+    <col min="3060" max="3060" width="3.140625" style="9" customWidth="1"/>
+    <col min="3061" max="3061" width="9.85546875" style="9" customWidth="1"/>
+    <col min="3062" max="3062" width="8" style="9" customWidth="1"/>
+    <col min="3063" max="3063" width="9.140625" style="9" customWidth="1"/>
+    <col min="3064" max="3064" width="8" style="9" customWidth="1"/>
+    <col min="3065" max="3066" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3067" max="3067" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3068" max="3069" width="8" style="9" customWidth="1"/>
+    <col min="3070" max="3070" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3071" max="3072" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3073" max="3073" width="13.140625" style="9" customWidth="1"/>
+    <col min="3074" max="3077" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3078" max="3079" width="8" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="11.28515625" style="9" customWidth="1"/>
+    <col min="3081" max="3083" width="8.42578125" style="9" customWidth="1"/>
+    <col min="3084" max="3086" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3087" max="3315" width="6" style="9"/>
+    <col min="3316" max="3316" width="3.140625" style="9" customWidth="1"/>
+    <col min="3317" max="3317" width="9.85546875" style="9" customWidth="1"/>
+    <col min="3318" max="3318" width="8" style="9" customWidth="1"/>
+    <col min="3319" max="3319" width="9.140625" style="9" customWidth="1"/>
+    <col min="3320" max="3320" width="8" style="9" customWidth="1"/>
+    <col min="3321" max="3322" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3323" max="3323" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3324" max="3325" width="8" style="9" customWidth="1"/>
+    <col min="3326" max="3326" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3327" max="3328" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3329" max="3329" width="13.140625" style="9" customWidth="1"/>
+    <col min="3330" max="3333" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3334" max="3335" width="8" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="11.28515625" style="9" customWidth="1"/>
+    <col min="3337" max="3339" width="8.42578125" style="9" customWidth="1"/>
+    <col min="3340" max="3342" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3343" max="3571" width="6" style="9"/>
+    <col min="3572" max="3572" width="3.140625" style="9" customWidth="1"/>
+    <col min="3573" max="3573" width="9.85546875" style="9" customWidth="1"/>
+    <col min="3574" max="3574" width="8" style="9" customWidth="1"/>
+    <col min="3575" max="3575" width="9.140625" style="9" customWidth="1"/>
+    <col min="3576" max="3576" width="8" style="9" customWidth="1"/>
+    <col min="3577" max="3578" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3579" max="3579" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3580" max="3581" width="8" style="9" customWidth="1"/>
+    <col min="3582" max="3582" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3583" max="3584" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3585" max="3585" width="13.140625" style="9" customWidth="1"/>
+    <col min="3586" max="3589" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3590" max="3591" width="8" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="11.28515625" style="9" customWidth="1"/>
+    <col min="3593" max="3595" width="8.42578125" style="9" customWidth="1"/>
+    <col min="3596" max="3598" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3599" max="3827" width="6" style="9"/>
+    <col min="3828" max="3828" width="3.140625" style="9" customWidth="1"/>
+    <col min="3829" max="3829" width="9.85546875" style="9" customWidth="1"/>
+    <col min="3830" max="3830" width="8" style="9" customWidth="1"/>
+    <col min="3831" max="3831" width="9.140625" style="9" customWidth="1"/>
+    <col min="3832" max="3832" width="8" style="9" customWidth="1"/>
+    <col min="3833" max="3834" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3835" max="3835" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3836" max="3837" width="8" style="9" customWidth="1"/>
+    <col min="3838" max="3838" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3839" max="3840" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3841" max="3841" width="13.140625" style="9" customWidth="1"/>
+    <col min="3842" max="3845" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3846" max="3847" width="8" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="11.28515625" style="9" customWidth="1"/>
+    <col min="3849" max="3851" width="8.42578125" style="9" customWidth="1"/>
+    <col min="3852" max="3854" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3855" max="4083" width="6" style="9"/>
+    <col min="4084" max="4084" width="3.140625" style="9" customWidth="1"/>
+    <col min="4085" max="4085" width="9.85546875" style="9" customWidth="1"/>
+    <col min="4086" max="4086" width="8" style="9" customWidth="1"/>
+    <col min="4087" max="4087" width="9.140625" style="9" customWidth="1"/>
+    <col min="4088" max="4088" width="8" style="9" customWidth="1"/>
+    <col min="4089" max="4090" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4091" max="4091" width="8.7109375" style="9" customWidth="1"/>
+    <col min="4092" max="4093" width="8" style="9" customWidth="1"/>
+    <col min="4094" max="4094" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4095" max="4096" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4097" max="4097" width="13.140625" style="9" customWidth="1"/>
+    <col min="4098" max="4101" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4102" max="4103" width="8" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="11.28515625" style="9" customWidth="1"/>
+    <col min="4105" max="4107" width="8.42578125" style="9" customWidth="1"/>
+    <col min="4108" max="4110" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4111" max="4339" width="6" style="9"/>
+    <col min="4340" max="4340" width="3.140625" style="9" customWidth="1"/>
+    <col min="4341" max="4341" width="9.85546875" style="9" customWidth="1"/>
+    <col min="4342" max="4342" width="8" style="9" customWidth="1"/>
+    <col min="4343" max="4343" width="9.140625" style="9" customWidth="1"/>
+    <col min="4344" max="4344" width="8" style="9" customWidth="1"/>
+    <col min="4345" max="4346" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4347" max="4347" width="8.7109375" style="9" customWidth="1"/>
+    <col min="4348" max="4349" width="8" style="9" customWidth="1"/>
+    <col min="4350" max="4350" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4351" max="4352" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4353" max="4353" width="13.140625" style="9" customWidth="1"/>
+    <col min="4354" max="4357" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4358" max="4359" width="8" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="11.28515625" style="9" customWidth="1"/>
+    <col min="4361" max="4363" width="8.42578125" style="9" customWidth="1"/>
+    <col min="4364" max="4366" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4367" max="4595" width="6" style="9"/>
+    <col min="4596" max="4596" width="3.140625" style="9" customWidth="1"/>
+    <col min="4597" max="4597" width="9.85546875" style="9" customWidth="1"/>
+    <col min="4598" max="4598" width="8" style="9" customWidth="1"/>
+    <col min="4599" max="4599" width="9.140625" style="9" customWidth="1"/>
+    <col min="4600" max="4600" width="8" style="9" customWidth="1"/>
+    <col min="4601" max="4602" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4603" max="4603" width="8.7109375" style="9" customWidth="1"/>
+    <col min="4604" max="4605" width="8" style="9" customWidth="1"/>
+    <col min="4606" max="4606" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4607" max="4608" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4609" max="4609" width="13.140625" style="9" customWidth="1"/>
+    <col min="4610" max="4613" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4614" max="4615" width="8" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="11.28515625" style="9" customWidth="1"/>
+    <col min="4617" max="4619" width="8.42578125" style="9" customWidth="1"/>
+    <col min="4620" max="4622" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4623" max="4851" width="6" style="9"/>
+    <col min="4852" max="4852" width="3.140625" style="9" customWidth="1"/>
+    <col min="4853" max="4853" width="9.85546875" style="9" customWidth="1"/>
+    <col min="4854" max="4854" width="8" style="9" customWidth="1"/>
+    <col min="4855" max="4855" width="9.140625" style="9" customWidth="1"/>
+    <col min="4856" max="4856" width="8" style="9" customWidth="1"/>
+    <col min="4857" max="4858" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4859" max="4859" width="8.7109375" style="9" customWidth="1"/>
+    <col min="4860" max="4861" width="8" style="9" customWidth="1"/>
+    <col min="4862" max="4862" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4863" max="4864" width="6.7109375" style="9" customWidth="1"/>
+    <col min="4865" max="4865" width="13.140625" style="9" customWidth="1"/>
+    <col min="4866" max="4869" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4870" max="4871" width="8" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="11.28515625" style="9" customWidth="1"/>
+    <col min="4873" max="4875" width="8.42578125" style="9" customWidth="1"/>
+    <col min="4876" max="4878" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4879" max="5107" width="6" style="9"/>
+    <col min="5108" max="5108" width="3.140625" style="9" customWidth="1"/>
+    <col min="5109" max="5109" width="9.85546875" style="9" customWidth="1"/>
+    <col min="5110" max="5110" width="8" style="9" customWidth="1"/>
+    <col min="5111" max="5111" width="9.140625" style="9" customWidth="1"/>
+    <col min="5112" max="5112" width="8" style="9" customWidth="1"/>
+    <col min="5113" max="5114" width="6.7109375" style="9" customWidth="1"/>
+    <col min="5115" max="5115" width="8.7109375" style="9" customWidth="1"/>
+    <col min="5116" max="5117" width="8" style="9" customWidth="1"/>
+    <col min="5118" max="5118" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5119" max="5120" width="6.7109375" style="9" customWidth="1"/>
+    <col min="5121" max="5121" width="13.140625" style="9" customWidth="1"/>
+    <col min="5122" max="5125" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5126" max="5127" width="8" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="11.28515625" style="9" customWidth="1"/>
+    <col min="5129" max="5131" width="8.42578125" style="9" customWidth="1"/>
+    <col min="5132" max="5134" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5135" max="5363" width="6" style="9"/>
+    <col min="5364" max="5364" width="3.140625" style="9" customWidth="1"/>
+    <col min="5365" max="5365" width="9.85546875" style="9" customWidth="1"/>
+    <col min="5366" max="5366" width="8" style="9" customWidth="1"/>
+    <col min="5367" max="5367" width="9.140625" style="9" customWidth="1"/>
+    <col min="5368" max="5368" width="8" style="9" customWidth="1"/>
+    <col min="5369" max="5370" width="6.7109375" style="9" customWidth="1"/>
+    <col min="5371" max="5371" width="8.7109375" style="9" customWidth="1"/>
+    <col min="5372" max="5373" width="8" style="9" customWidth="1"/>
+    <col min="5374" max="5374" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5375" max="5376" width="6.7109375" style="9" customWidth="1"/>
+    <col min="5377" max="5377" width="13.140625" style="9" customWidth="1"/>
+    <col min="5378" max="5381" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5382" max="5383" width="8" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="11.28515625" style="9" customWidth="1"/>
+    <col min="5385" max="5387" width="8.42578125" style="9" customWidth="1"/>
+    <col min="5388" max="5390" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5391" max="5619" width="6" style="9"/>
+    <col min="5620" max="5620" width="3.140625" style="9" customWidth="1"/>
+    <col min="5621" max="5621" width="9.85546875" style="9" customWidth="1"/>
+    <col min="5622" max="5622" width="8" style="9" customWidth="1"/>
+    <col min="5623" max="5623" width="9.140625" style="9" customWidth="1"/>
+    <col min="5624" max="5624" width="8" style="9" customWidth="1"/>
+    <col min="5625" max="5626" width="6.7109375" style="9" customWidth="1"/>
+    <col min="5627" max="5627" width="8.7109375" style="9" customWidth="1"/>
+    <col min="5628" max="5629" width="8" style="9" customWidth="1"/>
+    <col min="5630" max="5630" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5631" max="5632" width="6.7109375" style="9" customWidth="1"/>
+    <col min="5633" max="5633" width="13.140625" style="9" customWidth="1"/>
+    <col min="5634" max="5637" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5638" max="5639" width="8" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="11.28515625" style="9" customWidth="1"/>
+    <col min="5641" max="5643" width="8.42578125" style="9" customWidth="1"/>
+    <col min="5644" max="5646" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5647" max="5875" width="6" style="9"/>
+    <col min="5876" max="5876" width="3.140625" style="9" customWidth="1"/>
+    <col min="5877" max="5877" width="9.85546875" style="9" customWidth="1"/>
+    <col min="5878" max="5878" width="8" style="9" customWidth="1"/>
+    <col min="5879" max="5879" width="9.140625" style="9" customWidth="1"/>
+    <col min="5880" max="5880" width="8" style="9" customWidth="1"/>
+    <col min="5881" max="5882" width="6.7109375" style="9" customWidth="1"/>
+    <col min="5883" max="5883" width="8.7109375" style="9" customWidth="1"/>
+    <col min="5884" max="5885" width="8" style="9" customWidth="1"/>
+    <col min="5886" max="5886" width="10.42578125" style="9" customWidth="1"/>
+    <col min="5887" max="5888" width="6.7109375" style="9" customWidth="1"/>
+    <col min="5889" max="5889" width="13.140625" style="9" customWidth="1"/>
+    <col min="5890" max="5893" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5894" max="5895" width="8" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="11.28515625" style="9" customWidth="1"/>
+    <col min="5897" max="5899" width="8.42578125" style="9" customWidth="1"/>
+    <col min="5900" max="5902" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5903" max="6131" width="6" style="9"/>
+    <col min="6132" max="6132" width="3.140625" style="9" customWidth="1"/>
+    <col min="6133" max="6133" width="9.85546875" style="9" customWidth="1"/>
+    <col min="6134" max="6134" width="8" style="9" customWidth="1"/>
+    <col min="6135" max="6135" width="9.140625" style="9" customWidth="1"/>
+    <col min="6136" max="6136" width="8" style="9" customWidth="1"/>
+    <col min="6137" max="6138" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6139" max="6139" width="8.7109375" style="9" customWidth="1"/>
+    <col min="6140" max="6141" width="8" style="9" customWidth="1"/>
+    <col min="6142" max="6142" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6143" max="6144" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6145" max="6145" width="13.140625" style="9" customWidth="1"/>
+    <col min="6146" max="6149" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6150" max="6151" width="8" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="11.28515625" style="9" customWidth="1"/>
+    <col min="6153" max="6155" width="8.42578125" style="9" customWidth="1"/>
+    <col min="6156" max="6158" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6159" max="6387" width="6" style="9"/>
+    <col min="6388" max="6388" width="3.140625" style="9" customWidth="1"/>
+    <col min="6389" max="6389" width="9.85546875" style="9" customWidth="1"/>
+    <col min="6390" max="6390" width="8" style="9" customWidth="1"/>
+    <col min="6391" max="6391" width="9.140625" style="9" customWidth="1"/>
+    <col min="6392" max="6392" width="8" style="9" customWidth="1"/>
+    <col min="6393" max="6394" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6395" max="6395" width="8.7109375" style="9" customWidth="1"/>
+    <col min="6396" max="6397" width="8" style="9" customWidth="1"/>
+    <col min="6398" max="6398" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6399" max="6400" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6401" max="6401" width="13.140625" style="9" customWidth="1"/>
+    <col min="6402" max="6405" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6406" max="6407" width="8" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="11.28515625" style="9" customWidth="1"/>
+    <col min="6409" max="6411" width="8.42578125" style="9" customWidth="1"/>
+    <col min="6412" max="6414" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6415" max="6643" width="6" style="9"/>
+    <col min="6644" max="6644" width="3.140625" style="9" customWidth="1"/>
+    <col min="6645" max="6645" width="9.85546875" style="9" customWidth="1"/>
+    <col min="6646" max="6646" width="8" style="9" customWidth="1"/>
+    <col min="6647" max="6647" width="9.140625" style="9" customWidth="1"/>
+    <col min="6648" max="6648" width="8" style="9" customWidth="1"/>
+    <col min="6649" max="6650" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6651" max="6651" width="8.7109375" style="9" customWidth="1"/>
+    <col min="6652" max="6653" width="8" style="9" customWidth="1"/>
+    <col min="6654" max="6654" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6655" max="6656" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6657" max="6657" width="13.140625" style="9" customWidth="1"/>
+    <col min="6658" max="6661" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6662" max="6663" width="8" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="11.28515625" style="9" customWidth="1"/>
+    <col min="6665" max="6667" width="8.42578125" style="9" customWidth="1"/>
+    <col min="6668" max="6670" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6671" max="6899" width="6" style="9"/>
+    <col min="6900" max="6900" width="3.140625" style="9" customWidth="1"/>
+    <col min="6901" max="6901" width="9.85546875" style="9" customWidth="1"/>
+    <col min="6902" max="6902" width="8" style="9" customWidth="1"/>
+    <col min="6903" max="6903" width="9.140625" style="9" customWidth="1"/>
+    <col min="6904" max="6904" width="8" style="9" customWidth="1"/>
+    <col min="6905" max="6906" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6907" max="6907" width="8.7109375" style="9" customWidth="1"/>
+    <col min="6908" max="6909" width="8" style="9" customWidth="1"/>
+    <col min="6910" max="6910" width="10.42578125" style="9" customWidth="1"/>
+    <col min="6911" max="6912" width="6.7109375" style="9" customWidth="1"/>
+    <col min="6913" max="6913" width="13.140625" style="9" customWidth="1"/>
+    <col min="6914" max="6917" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6918" max="6919" width="8" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="11.28515625" style="9" customWidth="1"/>
+    <col min="6921" max="6923" width="8.42578125" style="9" customWidth="1"/>
+    <col min="6924" max="6926" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6927" max="7155" width="6" style="9"/>
+    <col min="7156" max="7156" width="3.140625" style="9" customWidth="1"/>
+    <col min="7157" max="7157" width="9.85546875" style="9" customWidth="1"/>
+    <col min="7158" max="7158" width="8" style="9" customWidth="1"/>
+    <col min="7159" max="7159" width="9.140625" style="9" customWidth="1"/>
+    <col min="7160" max="7160" width="8" style="9" customWidth="1"/>
+    <col min="7161" max="7162" width="6.7109375" style="9" customWidth="1"/>
+    <col min="7163" max="7163" width="8.7109375" style="9" customWidth="1"/>
+    <col min="7164" max="7165" width="8" style="9" customWidth="1"/>
+    <col min="7166" max="7166" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7167" max="7168" width="6.7109375" style="9" customWidth="1"/>
+    <col min="7169" max="7169" width="13.140625" style="9" customWidth="1"/>
+    <col min="7170" max="7173" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7174" max="7175" width="8" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="11.28515625" style="9" customWidth="1"/>
+    <col min="7177" max="7179" width="8.42578125" style="9" customWidth="1"/>
+    <col min="7180" max="7182" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7183" max="7411" width="6" style="9"/>
+    <col min="7412" max="7412" width="3.140625" style="9" customWidth="1"/>
+    <col min="7413" max="7413" width="9.85546875" style="9" customWidth="1"/>
+    <col min="7414" max="7414" width="8" style="9" customWidth="1"/>
+    <col min="7415" max="7415" width="9.140625" style="9" customWidth="1"/>
+    <col min="7416" max="7416" width="8" style="9" customWidth="1"/>
+    <col min="7417" max="7418" width="6.7109375" style="9" customWidth="1"/>
+    <col min="7419" max="7419" width="8.7109375" style="9" customWidth="1"/>
+    <col min="7420" max="7421" width="8" style="9" customWidth="1"/>
+    <col min="7422" max="7422" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7423" max="7424" width="6.7109375" style="9" customWidth="1"/>
+    <col min="7425" max="7425" width="13.140625" style="9" customWidth="1"/>
+    <col min="7426" max="7429" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7430" max="7431" width="8" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="11.28515625" style="9" customWidth="1"/>
+    <col min="7433" max="7435" width="8.42578125" style="9" customWidth="1"/>
+    <col min="7436" max="7438" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7439" max="7667" width="6" style="9"/>
+    <col min="7668" max="7668" width="3.140625" style="9" customWidth="1"/>
+    <col min="7669" max="7669" width="9.85546875" style="9" customWidth="1"/>
+    <col min="7670" max="7670" width="8" style="9" customWidth="1"/>
+    <col min="7671" max="7671" width="9.140625" style="9" customWidth="1"/>
+    <col min="7672" max="7672" width="8" style="9" customWidth="1"/>
+    <col min="7673" max="7674" width="6.7109375" style="9" customWidth="1"/>
+    <col min="7675" max="7675" width="8.7109375" style="9" customWidth="1"/>
+    <col min="7676" max="7677" width="8" style="9" customWidth="1"/>
+    <col min="7678" max="7678" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7679" max="7680" width="6.7109375" style="9" customWidth="1"/>
+    <col min="7681" max="7681" width="13.140625" style="9" customWidth="1"/>
+    <col min="7682" max="7685" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7686" max="7687" width="8" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="11.28515625" style="9" customWidth="1"/>
+    <col min="7689" max="7691" width="8.42578125" style="9" customWidth="1"/>
+    <col min="7692" max="7694" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7695" max="7923" width="6" style="9"/>
+    <col min="7924" max="7924" width="3.140625" style="9" customWidth="1"/>
+    <col min="7925" max="7925" width="9.85546875" style="9" customWidth="1"/>
+    <col min="7926" max="7926" width="8" style="9" customWidth="1"/>
+    <col min="7927" max="7927" width="9.140625" style="9" customWidth="1"/>
+    <col min="7928" max="7928" width="8" style="9" customWidth="1"/>
+    <col min="7929" max="7930" width="6.7109375" style="9" customWidth="1"/>
+    <col min="7931" max="7931" width="8.7109375" style="9" customWidth="1"/>
+    <col min="7932" max="7933" width="8" style="9" customWidth="1"/>
+    <col min="7934" max="7934" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7935" max="7936" width="6.7109375" style="9" customWidth="1"/>
+    <col min="7937" max="7937" width="13.140625" style="9" customWidth="1"/>
+    <col min="7938" max="7941" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7942" max="7943" width="8" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="11.28515625" style="9" customWidth="1"/>
+    <col min="7945" max="7947" width="8.42578125" style="9" customWidth="1"/>
+    <col min="7948" max="7950" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7951" max="8179" width="6" style="9"/>
+    <col min="8180" max="8180" width="3.140625" style="9" customWidth="1"/>
+    <col min="8181" max="8181" width="9.85546875" style="9" customWidth="1"/>
+    <col min="8182" max="8182" width="8" style="9" customWidth="1"/>
+    <col min="8183" max="8183" width="9.140625" style="9" customWidth="1"/>
+    <col min="8184" max="8184" width="8" style="9" customWidth="1"/>
+    <col min="8185" max="8186" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8187" max="8187" width="8.7109375" style="9" customWidth="1"/>
+    <col min="8188" max="8189" width="8" style="9" customWidth="1"/>
+    <col min="8190" max="8190" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8191" max="8192" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8193" max="8193" width="13.140625" style="9" customWidth="1"/>
+    <col min="8194" max="8197" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8198" max="8199" width="8" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="11.28515625" style="9" customWidth="1"/>
+    <col min="8201" max="8203" width="8.42578125" style="9" customWidth="1"/>
+    <col min="8204" max="8206" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8207" max="8435" width="6" style="9"/>
+    <col min="8436" max="8436" width="3.140625" style="9" customWidth="1"/>
+    <col min="8437" max="8437" width="9.85546875" style="9" customWidth="1"/>
+    <col min="8438" max="8438" width="8" style="9" customWidth="1"/>
+    <col min="8439" max="8439" width="9.140625" style="9" customWidth="1"/>
+    <col min="8440" max="8440" width="8" style="9" customWidth="1"/>
+    <col min="8441" max="8442" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8443" max="8443" width="8.7109375" style="9" customWidth="1"/>
+    <col min="8444" max="8445" width="8" style="9" customWidth="1"/>
+    <col min="8446" max="8446" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8447" max="8448" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8449" max="8449" width="13.140625" style="9" customWidth="1"/>
+    <col min="8450" max="8453" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8454" max="8455" width="8" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="11.28515625" style="9" customWidth="1"/>
+    <col min="8457" max="8459" width="8.42578125" style="9" customWidth="1"/>
+    <col min="8460" max="8462" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8463" max="8691" width="6" style="9"/>
+    <col min="8692" max="8692" width="3.140625" style="9" customWidth="1"/>
+    <col min="8693" max="8693" width="9.85546875" style="9" customWidth="1"/>
+    <col min="8694" max="8694" width="8" style="9" customWidth="1"/>
+    <col min="8695" max="8695" width="9.140625" style="9" customWidth="1"/>
+    <col min="8696" max="8696" width="8" style="9" customWidth="1"/>
+    <col min="8697" max="8698" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8699" max="8699" width="8.7109375" style="9" customWidth="1"/>
+    <col min="8700" max="8701" width="8" style="9" customWidth="1"/>
+    <col min="8702" max="8702" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8703" max="8704" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8705" max="8705" width="13.140625" style="9" customWidth="1"/>
+    <col min="8706" max="8709" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8710" max="8711" width="8" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="11.28515625" style="9" customWidth="1"/>
+    <col min="8713" max="8715" width="8.42578125" style="9" customWidth="1"/>
+    <col min="8716" max="8718" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8719" max="8947" width="6" style="9"/>
+    <col min="8948" max="8948" width="3.140625" style="9" customWidth="1"/>
+    <col min="8949" max="8949" width="9.85546875" style="9" customWidth="1"/>
+    <col min="8950" max="8950" width="8" style="9" customWidth="1"/>
+    <col min="8951" max="8951" width="9.140625" style="9" customWidth="1"/>
+    <col min="8952" max="8952" width="8" style="9" customWidth="1"/>
+    <col min="8953" max="8954" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8955" max="8955" width="8.7109375" style="9" customWidth="1"/>
+    <col min="8956" max="8957" width="8" style="9" customWidth="1"/>
+    <col min="8958" max="8958" width="10.42578125" style="9" customWidth="1"/>
+    <col min="8959" max="8960" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8961" max="8961" width="13.140625" style="9" customWidth="1"/>
+    <col min="8962" max="8965" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8966" max="8967" width="8" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="11.28515625" style="9" customWidth="1"/>
+    <col min="8969" max="8971" width="8.42578125" style="9" customWidth="1"/>
+    <col min="8972" max="8974" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8975" max="9203" width="6" style="9"/>
+    <col min="9204" max="9204" width="3.140625" style="9" customWidth="1"/>
+    <col min="9205" max="9205" width="9.85546875" style="9" customWidth="1"/>
+    <col min="9206" max="9206" width="8" style="9" customWidth="1"/>
+    <col min="9207" max="9207" width="9.140625" style="9" customWidth="1"/>
+    <col min="9208" max="9208" width="8" style="9" customWidth="1"/>
+    <col min="9209" max="9210" width="6.7109375" style="9" customWidth="1"/>
+    <col min="9211" max="9211" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9212" max="9213" width="8" style="9" customWidth="1"/>
+    <col min="9214" max="9214" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9215" max="9216" width="6.7109375" style="9" customWidth="1"/>
+    <col min="9217" max="9217" width="13.140625" style="9" customWidth="1"/>
+    <col min="9218" max="9221" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9222" max="9223" width="8" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="11.28515625" style="9" customWidth="1"/>
+    <col min="9225" max="9227" width="8.42578125" style="9" customWidth="1"/>
+    <col min="9228" max="9230" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9231" max="9459" width="6" style="9"/>
+    <col min="9460" max="9460" width="3.140625" style="9" customWidth="1"/>
+    <col min="9461" max="9461" width="9.85546875" style="9" customWidth="1"/>
+    <col min="9462" max="9462" width="8" style="9" customWidth="1"/>
+    <col min="9463" max="9463" width="9.140625" style="9" customWidth="1"/>
+    <col min="9464" max="9464" width="8" style="9" customWidth="1"/>
+    <col min="9465" max="9466" width="6.7109375" style="9" customWidth="1"/>
+    <col min="9467" max="9467" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9468" max="9469" width="8" style="9" customWidth="1"/>
+    <col min="9470" max="9470" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9471" max="9472" width="6.7109375" style="9" customWidth="1"/>
+    <col min="9473" max="9473" width="13.140625" style="9" customWidth="1"/>
+    <col min="9474" max="9477" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9478" max="9479" width="8" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="11.28515625" style="9" customWidth="1"/>
+    <col min="9481" max="9483" width="8.42578125" style="9" customWidth="1"/>
+    <col min="9484" max="9486" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9487" max="9715" width="6" style="9"/>
+    <col min="9716" max="9716" width="3.140625" style="9" customWidth="1"/>
+    <col min="9717" max="9717" width="9.85546875" style="9" customWidth="1"/>
+    <col min="9718" max="9718" width="8" style="9" customWidth="1"/>
+    <col min="9719" max="9719" width="9.140625" style="9" customWidth="1"/>
+    <col min="9720" max="9720" width="8" style="9" customWidth="1"/>
+    <col min="9721" max="9722" width="6.7109375" style="9" customWidth="1"/>
+    <col min="9723" max="9723" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9724" max="9725" width="8" style="9" customWidth="1"/>
+    <col min="9726" max="9726" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9727" max="9728" width="6.7109375" style="9" customWidth="1"/>
+    <col min="9729" max="9729" width="13.140625" style="9" customWidth="1"/>
+    <col min="9730" max="9733" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9734" max="9735" width="8" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="11.28515625" style="9" customWidth="1"/>
+    <col min="9737" max="9739" width="8.42578125" style="9" customWidth="1"/>
+    <col min="9740" max="9742" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9743" max="9971" width="6" style="9"/>
+    <col min="9972" max="9972" width="3.140625" style="9" customWidth="1"/>
+    <col min="9973" max="9973" width="9.85546875" style="9" customWidth="1"/>
+    <col min="9974" max="9974" width="8" style="9" customWidth="1"/>
+    <col min="9975" max="9975" width="9.140625" style="9" customWidth="1"/>
+    <col min="9976" max="9976" width="8" style="9" customWidth="1"/>
+    <col min="9977" max="9978" width="6.7109375" style="9" customWidth="1"/>
+    <col min="9979" max="9979" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9980" max="9981" width="8" style="9" customWidth="1"/>
+    <col min="9982" max="9982" width="10.42578125" style="9" customWidth="1"/>
+    <col min="9983" max="9984" width="6.7109375" style="9" customWidth="1"/>
+    <col min="9985" max="9985" width="13.140625" style="9" customWidth="1"/>
+    <col min="9986" max="9989" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9990" max="9991" width="8" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="11.28515625" style="9" customWidth="1"/>
+    <col min="9993" max="9995" width="8.42578125" style="9" customWidth="1"/>
+    <col min="9996" max="9998" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9999" max="10227" width="6" style="9"/>
+    <col min="10228" max="10228" width="3.140625" style="9" customWidth="1"/>
+    <col min="10229" max="10229" width="9.85546875" style="9" customWidth="1"/>
+    <col min="10230" max="10230" width="8" style="9" customWidth="1"/>
+    <col min="10231" max="10231" width="9.140625" style="9" customWidth="1"/>
+    <col min="10232" max="10232" width="8" style="9" customWidth="1"/>
+    <col min="10233" max="10234" width="6.7109375" style="9" customWidth="1"/>
+    <col min="10235" max="10235" width="8.7109375" style="9" customWidth="1"/>
+    <col min="10236" max="10237" width="8" style="9" customWidth="1"/>
+    <col min="10238" max="10238" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10239" max="10240" width="6.7109375" style="9" customWidth="1"/>
+    <col min="10241" max="10241" width="13.140625" style="9" customWidth="1"/>
+    <col min="10242" max="10245" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10246" max="10247" width="8" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="11.28515625" style="9" customWidth="1"/>
+    <col min="10249" max="10251" width="8.42578125" style="9" customWidth="1"/>
+    <col min="10252" max="10254" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10255" max="10483" width="6" style="9"/>
+    <col min="10484" max="10484" width="3.140625" style="9" customWidth="1"/>
+    <col min="10485" max="10485" width="9.85546875" style="9" customWidth="1"/>
+    <col min="10486" max="10486" width="8" style="9" customWidth="1"/>
+    <col min="10487" max="10487" width="9.140625" style="9" customWidth="1"/>
+    <col min="10488" max="10488" width="8" style="9" customWidth="1"/>
+    <col min="10489" max="10490" width="6.7109375" style="9" customWidth="1"/>
+    <col min="10491" max="10491" width="8.7109375" style="9" customWidth="1"/>
+    <col min="10492" max="10493" width="8" style="9" customWidth="1"/>
+    <col min="10494" max="10494" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10495" max="10496" width="6.7109375" style="9" customWidth="1"/>
+    <col min="10497" max="10497" width="13.140625" style="9" customWidth="1"/>
+    <col min="10498" max="10501" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10502" max="10503" width="8" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="11.28515625" style="9" customWidth="1"/>
+    <col min="10505" max="10507" width="8.42578125" style="9" customWidth="1"/>
+    <col min="10508" max="10510" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10511" max="10739" width="6" style="9"/>
+    <col min="10740" max="10740" width="3.140625" style="9" customWidth="1"/>
+    <col min="10741" max="10741" width="9.85546875" style="9" customWidth="1"/>
+    <col min="10742" max="10742" width="8" style="9" customWidth="1"/>
+    <col min="10743" max="10743" width="9.140625" style="9" customWidth="1"/>
+    <col min="10744" max="10744" width="8" style="9" customWidth="1"/>
+    <col min="10745" max="10746" width="6.7109375" style="9" customWidth="1"/>
+    <col min="10747" max="10747" width="8.7109375" style="9" customWidth="1"/>
+    <col min="10748" max="10749" width="8" style="9" customWidth="1"/>
+    <col min="10750" max="10750" width="10.42578125" style="9" customWidth="1"/>
+    <col min="10751" max="10752" width="6.7109375" style="9" customWidth="1"/>
+    <col min="10753" max="10753" width="13.140625" style="9" customWidth="1"/>
+    <col min="10754" max="10757" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10758" max="10759" width="8" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="11.28515625" style="9" customWidth="1"/>
+    <col min="10761" max="10763" width="8.42578125" style="9" customWidth="1"/>
+    <col min="10764" max="10766" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10767" max="10995" width="6" style="9"/>
+    <col min="10996" max="10996" width="3.140625" style="9" customWidth="1"/>
+    <col min="10997" max="10997" width="9.85546875" style="9" customWidth="1"/>
+    <col min="10998" max="10998" width="8" style="9" customWidth="1"/>
+    <col min="10999" max="10999" width="9.140625" style="9" customWidth="1"/>
+    <col min="11000" max="11000" width="8" style="9" customWidth="1"/>
+    <col min="11001" max="11002" width="6.7109375" style="9" customWidth="1"/>
+    <col min="11003" max="11003" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11004" max="11005" width="8" style="9" customWidth="1"/>
+    <col min="11006" max="11006" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11007" max="11008" width="6.7109375" style="9" customWidth="1"/>
+    <col min="11009" max="11009" width="13.140625" style="9" customWidth="1"/>
+    <col min="11010" max="11013" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11014" max="11015" width="8" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="11.28515625" style="9" customWidth="1"/>
+    <col min="11017" max="11019" width="8.42578125" style="9" customWidth="1"/>
+    <col min="11020" max="11022" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11023" max="11251" width="6" style="9"/>
+    <col min="11252" max="11252" width="3.140625" style="9" customWidth="1"/>
+    <col min="11253" max="11253" width="9.85546875" style="9" customWidth="1"/>
+    <col min="11254" max="11254" width="8" style="9" customWidth="1"/>
+    <col min="11255" max="11255" width="9.140625" style="9" customWidth="1"/>
+    <col min="11256" max="11256" width="8" style="9" customWidth="1"/>
+    <col min="11257" max="11258" width="6.7109375" style="9" customWidth="1"/>
+    <col min="11259" max="11259" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11260" max="11261" width="8" style="9" customWidth="1"/>
+    <col min="11262" max="11262" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11263" max="11264" width="6.7109375" style="9" customWidth="1"/>
+    <col min="11265" max="11265" width="13.140625" style="9" customWidth="1"/>
+    <col min="11266" max="11269" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11270" max="11271" width="8" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="11.28515625" style="9" customWidth="1"/>
+    <col min="11273" max="11275" width="8.42578125" style="9" customWidth="1"/>
+    <col min="11276" max="11278" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11279" max="11507" width="6" style="9"/>
+    <col min="11508" max="11508" width="3.140625" style="9" customWidth="1"/>
+    <col min="11509" max="11509" width="9.85546875" style="9" customWidth="1"/>
+    <col min="11510" max="11510" width="8" style="9" customWidth="1"/>
+    <col min="11511" max="11511" width="9.140625" style="9" customWidth="1"/>
+    <col min="11512" max="11512" width="8" style="9" customWidth="1"/>
+    <col min="11513" max="11514" width="6.7109375" style="9" customWidth="1"/>
+    <col min="11515" max="11515" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11516" max="11517" width="8" style="9" customWidth="1"/>
+    <col min="11518" max="11518" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11519" max="11520" width="6.7109375" style="9" customWidth="1"/>
+    <col min="11521" max="11521" width="13.140625" style="9" customWidth="1"/>
+    <col min="11522" max="11525" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11526" max="11527" width="8" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="11.28515625" style="9" customWidth="1"/>
+    <col min="11529" max="11531" width="8.42578125" style="9" customWidth="1"/>
+    <col min="11532" max="11534" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11535" max="11763" width="6" style="9"/>
+    <col min="11764" max="11764" width="3.140625" style="9" customWidth="1"/>
+    <col min="11765" max="11765" width="9.85546875" style="9" customWidth="1"/>
+    <col min="11766" max="11766" width="8" style="9" customWidth="1"/>
+    <col min="11767" max="11767" width="9.140625" style="9" customWidth="1"/>
+    <col min="11768" max="11768" width="8" style="9" customWidth="1"/>
+    <col min="11769" max="11770" width="6.7109375" style="9" customWidth="1"/>
+    <col min="11771" max="11771" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11772" max="11773" width="8" style="9" customWidth="1"/>
+    <col min="11774" max="11774" width="10.42578125" style="9" customWidth="1"/>
+    <col min="11775" max="11776" width="6.7109375" style="9" customWidth="1"/>
+    <col min="11777" max="11777" width="13.140625" style="9" customWidth="1"/>
+    <col min="11778" max="11781" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11782" max="11783" width="8" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="11.28515625" style="9" customWidth="1"/>
+    <col min="11785" max="11787" width="8.42578125" style="9" customWidth="1"/>
+    <col min="11788" max="11790" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11791" max="12019" width="6" style="9"/>
+    <col min="12020" max="12020" width="3.140625" style="9" customWidth="1"/>
+    <col min="12021" max="12021" width="9.85546875" style="9" customWidth="1"/>
+    <col min="12022" max="12022" width="8" style="9" customWidth="1"/>
+    <col min="12023" max="12023" width="9.140625" style="9" customWidth="1"/>
+    <col min="12024" max="12024" width="8" style="9" customWidth="1"/>
+    <col min="12025" max="12026" width="6.7109375" style="9" customWidth="1"/>
+    <col min="12027" max="12027" width="8.7109375" style="9" customWidth="1"/>
+    <col min="12028" max="12029" width="8" style="9" customWidth="1"/>
+    <col min="12030" max="12030" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12031" max="12032" width="6.7109375" style="9" customWidth="1"/>
+    <col min="12033" max="12033" width="13.140625" style="9" customWidth="1"/>
+    <col min="12034" max="12037" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12038" max="12039" width="8" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="11.28515625" style="9" customWidth="1"/>
+    <col min="12041" max="12043" width="8.42578125" style="9" customWidth="1"/>
+    <col min="12044" max="12046" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12047" max="12275" width="6" style="9"/>
+    <col min="12276" max="12276" width="3.140625" style="9" customWidth="1"/>
+    <col min="12277" max="12277" width="9.85546875" style="9" customWidth="1"/>
+    <col min="12278" max="12278" width="8" style="9" customWidth="1"/>
+    <col min="12279" max="12279" width="9.140625" style="9" customWidth="1"/>
+    <col min="12280" max="12280" width="8" style="9" customWidth="1"/>
+    <col min="12281" max="12282" width="6.7109375" style="9" customWidth="1"/>
+    <col min="12283" max="12283" width="8.7109375" style="9" customWidth="1"/>
+    <col min="12284" max="12285" width="8" style="9" customWidth="1"/>
+    <col min="12286" max="12286" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12287" max="12288" width="6.7109375" style="9" customWidth="1"/>
+    <col min="12289" max="12289" width="13.140625" style="9" customWidth="1"/>
+    <col min="12290" max="12293" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12294" max="12295" width="8" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="11.28515625" style="9" customWidth="1"/>
+    <col min="12297" max="12299" width="8.42578125" style="9" customWidth="1"/>
+    <col min="12300" max="12302" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12303" max="12531" width="6" style="9"/>
+    <col min="12532" max="12532" width="3.140625" style="9" customWidth="1"/>
+    <col min="12533" max="12533" width="9.85546875" style="9" customWidth="1"/>
+    <col min="12534" max="12534" width="8" style="9" customWidth="1"/>
+    <col min="12535" max="12535" width="9.140625" style="9" customWidth="1"/>
+    <col min="12536" max="12536" width="8" style="9" customWidth="1"/>
+    <col min="12537" max="12538" width="6.7109375" style="9" customWidth="1"/>
+    <col min="12539" max="12539" width="8.7109375" style="9" customWidth="1"/>
+    <col min="12540" max="12541" width="8" style="9" customWidth="1"/>
+    <col min="12542" max="12542" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12543" max="12544" width="6.7109375" style="9" customWidth="1"/>
+    <col min="12545" max="12545" width="13.140625" style="9" customWidth="1"/>
+    <col min="12546" max="12549" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12550" max="12551" width="8" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="11.28515625" style="9" customWidth="1"/>
+    <col min="12553" max="12555" width="8.42578125" style="9" customWidth="1"/>
+    <col min="12556" max="12558" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12559" max="12787" width="6" style="9"/>
+    <col min="12788" max="12788" width="3.140625" style="9" customWidth="1"/>
+    <col min="12789" max="12789" width="9.85546875" style="9" customWidth="1"/>
+    <col min="12790" max="12790" width="8" style="9" customWidth="1"/>
+    <col min="12791" max="12791" width="9.140625" style="9" customWidth="1"/>
+    <col min="12792" max="12792" width="8" style="9" customWidth="1"/>
+    <col min="12793" max="12794" width="6.7109375" style="9" customWidth="1"/>
+    <col min="12795" max="12795" width="8.7109375" style="9" customWidth="1"/>
+    <col min="12796" max="12797" width="8" style="9" customWidth="1"/>
+    <col min="12798" max="12798" width="10.42578125" style="9" customWidth="1"/>
+    <col min="12799" max="12800" width="6.7109375" style="9" customWidth="1"/>
+    <col min="12801" max="12801" width="13.140625" style="9" customWidth="1"/>
+    <col min="12802" max="12805" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12806" max="12807" width="8" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="11.28515625" style="9" customWidth="1"/>
+    <col min="12809" max="12811" width="8.42578125" style="9" customWidth="1"/>
+    <col min="12812" max="12814" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12815" max="13043" width="6" style="9"/>
+    <col min="13044" max="13044" width="3.140625" style="9" customWidth="1"/>
+    <col min="13045" max="13045" width="9.85546875" style="9" customWidth="1"/>
+    <col min="13046" max="13046" width="8" style="9" customWidth="1"/>
+    <col min="13047" max="13047" width="9.140625" style="9" customWidth="1"/>
+    <col min="13048" max="13048" width="8" style="9" customWidth="1"/>
+    <col min="13049" max="13050" width="6.7109375" style="9" customWidth="1"/>
+    <col min="13051" max="13051" width="8.7109375" style="9" customWidth="1"/>
+    <col min="13052" max="13053" width="8" style="9" customWidth="1"/>
+    <col min="13054" max="13054" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13055" max="13056" width="6.7109375" style="9" customWidth="1"/>
+    <col min="13057" max="13057" width="13.140625" style="9" customWidth="1"/>
+    <col min="13058" max="13061" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13062" max="13063" width="8" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="11.28515625" style="9" customWidth="1"/>
+    <col min="13065" max="13067" width="8.42578125" style="9" customWidth="1"/>
+    <col min="13068" max="13070" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13071" max="13299" width="6" style="9"/>
+    <col min="13300" max="13300" width="3.140625" style="9" customWidth="1"/>
+    <col min="13301" max="13301" width="9.85546875" style="9" customWidth="1"/>
+    <col min="13302" max="13302" width="8" style="9" customWidth="1"/>
+    <col min="13303" max="13303" width="9.140625" style="9" customWidth="1"/>
+    <col min="13304" max="13304" width="8" style="9" customWidth="1"/>
+    <col min="13305" max="13306" width="6.7109375" style="9" customWidth="1"/>
+    <col min="13307" max="13307" width="8.7109375" style="9" customWidth="1"/>
+    <col min="13308" max="13309" width="8" style="9" customWidth="1"/>
+    <col min="13310" max="13310" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13311" max="13312" width="6.7109375" style="9" customWidth="1"/>
+    <col min="13313" max="13313" width="13.140625" style="9" customWidth="1"/>
+    <col min="13314" max="13317" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13318" max="13319" width="8" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="11.28515625" style="9" customWidth="1"/>
+    <col min="13321" max="13323" width="8.42578125" style="9" customWidth="1"/>
+    <col min="13324" max="13326" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13327" max="13555" width="6" style="9"/>
+    <col min="13556" max="13556" width="3.140625" style="9" customWidth="1"/>
+    <col min="13557" max="13557" width="9.85546875" style="9" customWidth="1"/>
+    <col min="13558" max="13558" width="8" style="9" customWidth="1"/>
+    <col min="13559" max="13559" width="9.140625" style="9" customWidth="1"/>
+    <col min="13560" max="13560" width="8" style="9" customWidth="1"/>
+    <col min="13561" max="13562" width="6.7109375" style="9" customWidth="1"/>
+    <col min="13563" max="13563" width="8.7109375" style="9" customWidth="1"/>
+    <col min="13564" max="13565" width="8" style="9" customWidth="1"/>
+    <col min="13566" max="13566" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13567" max="13568" width="6.7109375" style="9" customWidth="1"/>
+    <col min="13569" max="13569" width="13.140625" style="9" customWidth="1"/>
+    <col min="13570" max="13573" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13574" max="13575" width="8" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="11.28515625" style="9" customWidth="1"/>
+    <col min="13577" max="13579" width="8.42578125" style="9" customWidth="1"/>
+    <col min="13580" max="13582" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13583" max="13811" width="6" style="9"/>
+    <col min="13812" max="13812" width="3.140625" style="9" customWidth="1"/>
+    <col min="13813" max="13813" width="9.85546875" style="9" customWidth="1"/>
+    <col min="13814" max="13814" width="8" style="9" customWidth="1"/>
+    <col min="13815" max="13815" width="9.140625" style="9" customWidth="1"/>
+    <col min="13816" max="13816" width="8" style="9" customWidth="1"/>
+    <col min="13817" max="13818" width="6.7109375" style="9" customWidth="1"/>
+    <col min="13819" max="13819" width="8.7109375" style="9" customWidth="1"/>
+    <col min="13820" max="13821" width="8" style="9" customWidth="1"/>
+    <col min="13822" max="13822" width="10.42578125" style="9" customWidth="1"/>
+    <col min="13823" max="13824" width="6.7109375" style="9" customWidth="1"/>
+    <col min="13825" max="13825" width="13.140625" style="9" customWidth="1"/>
+    <col min="13826" max="13829" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13830" max="13831" width="8" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="11.28515625" style="9" customWidth="1"/>
+    <col min="13833" max="13835" width="8.42578125" style="9" customWidth="1"/>
+    <col min="13836" max="13838" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13839" max="14067" width="6" style="9"/>
+    <col min="14068" max="14068" width="3.140625" style="9" customWidth="1"/>
+    <col min="14069" max="14069" width="9.85546875" style="9" customWidth="1"/>
+    <col min="14070" max="14070" width="8" style="9" customWidth="1"/>
+    <col min="14071" max="14071" width="9.140625" style="9" customWidth="1"/>
+    <col min="14072" max="14072" width="8" style="9" customWidth="1"/>
+    <col min="14073" max="14074" width="6.7109375" style="9" customWidth="1"/>
+    <col min="14075" max="14075" width="8.7109375" style="9" customWidth="1"/>
+    <col min="14076" max="14077" width="8" style="9" customWidth="1"/>
+    <col min="14078" max="14078" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14079" max="14080" width="6.7109375" style="9" customWidth="1"/>
+    <col min="14081" max="14081" width="13.140625" style="9" customWidth="1"/>
+    <col min="14082" max="14085" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14086" max="14087" width="8" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="11.28515625" style="9" customWidth="1"/>
+    <col min="14089" max="14091" width="8.42578125" style="9" customWidth="1"/>
+    <col min="14092" max="14094" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14095" max="14323" width="6" style="9"/>
+    <col min="14324" max="14324" width="3.140625" style="9" customWidth="1"/>
+    <col min="14325" max="14325" width="9.85546875" style="9" customWidth="1"/>
+    <col min="14326" max="14326" width="8" style="9" customWidth="1"/>
+    <col min="14327" max="14327" width="9.140625" style="9" customWidth="1"/>
+    <col min="14328" max="14328" width="8" style="9" customWidth="1"/>
+    <col min="14329" max="14330" width="6.7109375" style="9" customWidth="1"/>
+    <col min="14331" max="14331" width="8.7109375" style="9" customWidth="1"/>
+    <col min="14332" max="14333" width="8" style="9" customWidth="1"/>
+    <col min="14334" max="14334" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14335" max="14336" width="6.7109375" style="9" customWidth="1"/>
+    <col min="14337" max="14337" width="13.140625" style="9" customWidth="1"/>
+    <col min="14338" max="14341" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14342" max="14343" width="8" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="11.28515625" style="9" customWidth="1"/>
+    <col min="14345" max="14347" width="8.42578125" style="9" customWidth="1"/>
+    <col min="14348" max="14350" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14351" max="14579" width="6" style="9"/>
+    <col min="14580" max="14580" width="3.140625" style="9" customWidth="1"/>
+    <col min="14581" max="14581" width="9.85546875" style="9" customWidth="1"/>
+    <col min="14582" max="14582" width="8" style="9" customWidth="1"/>
+    <col min="14583" max="14583" width="9.140625" style="9" customWidth="1"/>
+    <col min="14584" max="14584" width="8" style="9" customWidth="1"/>
+    <col min="14585" max="14586" width="6.7109375" style="9" customWidth="1"/>
+    <col min="14587" max="14587" width="8.7109375" style="9" customWidth="1"/>
+    <col min="14588" max="14589" width="8" style="9" customWidth="1"/>
+    <col min="14590" max="14590" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14591" max="14592" width="6.7109375" style="9" customWidth="1"/>
+    <col min="14593" max="14593" width="13.140625" style="9" customWidth="1"/>
+    <col min="14594" max="14597" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14598" max="14599" width="8" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="11.28515625" style="9" customWidth="1"/>
+    <col min="14601" max="14603" width="8.42578125" style="9" customWidth="1"/>
+    <col min="14604" max="14606" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14607" max="14835" width="6" style="9"/>
+    <col min="14836" max="14836" width="3.140625" style="9" customWidth="1"/>
+    <col min="14837" max="14837" width="9.85546875" style="9" customWidth="1"/>
+    <col min="14838" max="14838" width="8" style="9" customWidth="1"/>
+    <col min="14839" max="14839" width="9.140625" style="9" customWidth="1"/>
+    <col min="14840" max="14840" width="8" style="9" customWidth="1"/>
+    <col min="14841" max="14842" width="6.7109375" style="9" customWidth="1"/>
+    <col min="14843" max="14843" width="8.7109375" style="9" customWidth="1"/>
+    <col min="14844" max="14845" width="8" style="9" customWidth="1"/>
+    <col min="14846" max="14846" width="10.42578125" style="9" customWidth="1"/>
+    <col min="14847" max="14848" width="6.7109375" style="9" customWidth="1"/>
+    <col min="14849" max="14849" width="13.140625" style="9" customWidth="1"/>
+    <col min="14850" max="14853" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14854" max="14855" width="8" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="11.28515625" style="9" customWidth="1"/>
+    <col min="14857" max="14859" width="8.42578125" style="9" customWidth="1"/>
+    <col min="14860" max="14862" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14863" max="15091" width="6" style="9"/>
+    <col min="15092" max="15092" width="3.140625" style="9" customWidth="1"/>
+    <col min="15093" max="15093" width="9.85546875" style="9" customWidth="1"/>
+    <col min="15094" max="15094" width="8" style="9" customWidth="1"/>
+    <col min="15095" max="15095" width="9.140625" style="9" customWidth="1"/>
+    <col min="15096" max="15096" width="8" style="9" customWidth="1"/>
+    <col min="15097" max="15098" width="6.7109375" style="9" customWidth="1"/>
+    <col min="15099" max="15099" width="8.7109375" style="9" customWidth="1"/>
+    <col min="15100" max="15101" width="8" style="9" customWidth="1"/>
+    <col min="15102" max="15102" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15103" max="15104" width="6.7109375" style="9" customWidth="1"/>
+    <col min="15105" max="15105" width="13.140625" style="9" customWidth="1"/>
+    <col min="15106" max="15109" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15110" max="15111" width="8" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="11.28515625" style="9" customWidth="1"/>
+    <col min="15113" max="15115" width="8.42578125" style="9" customWidth="1"/>
+    <col min="15116" max="15118" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15119" max="15347" width="6" style="9"/>
+    <col min="15348" max="15348" width="3.140625" style="9" customWidth="1"/>
+    <col min="15349" max="15349" width="9.85546875" style="9" customWidth="1"/>
+    <col min="15350" max="15350" width="8" style="9" customWidth="1"/>
+    <col min="15351" max="15351" width="9.140625" style="9" customWidth="1"/>
+    <col min="15352" max="15352" width="8" style="9" customWidth="1"/>
+    <col min="15353" max="15354" width="6.7109375" style="9" customWidth="1"/>
+    <col min="15355" max="15355" width="8.7109375" style="9" customWidth="1"/>
+    <col min="15356" max="15357" width="8" style="9" customWidth="1"/>
+    <col min="15358" max="15358" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15359" max="15360" width="6.7109375" style="9" customWidth="1"/>
+    <col min="15361" max="15361" width="13.140625" style="9" customWidth="1"/>
+    <col min="15362" max="15365" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15366" max="15367" width="8" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="11.28515625" style="9" customWidth="1"/>
+    <col min="15369" max="15371" width="8.42578125" style="9" customWidth="1"/>
+    <col min="15372" max="15374" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15375" max="15603" width="6" style="9"/>
+    <col min="15604" max="15604" width="3.140625" style="9" customWidth="1"/>
+    <col min="15605" max="15605" width="9.85546875" style="9" customWidth="1"/>
+    <col min="15606" max="15606" width="8" style="9" customWidth="1"/>
+    <col min="15607" max="15607" width="9.140625" style="9" customWidth="1"/>
+    <col min="15608" max="15608" width="8" style="9" customWidth="1"/>
+    <col min="15609" max="15610" width="6.7109375" style="9" customWidth="1"/>
+    <col min="15611" max="15611" width="8.7109375" style="9" customWidth="1"/>
+    <col min="15612" max="15613" width="8" style="9" customWidth="1"/>
+    <col min="15614" max="15614" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15615" max="15616" width="6.7109375" style="9" customWidth="1"/>
+    <col min="15617" max="15617" width="13.140625" style="9" customWidth="1"/>
+    <col min="15618" max="15621" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15622" max="15623" width="8" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="11.28515625" style="9" customWidth="1"/>
+    <col min="15625" max="15627" width="8.42578125" style="9" customWidth="1"/>
+    <col min="15628" max="15630" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15631" max="15859" width="6" style="9"/>
+    <col min="15860" max="15860" width="3.140625" style="9" customWidth="1"/>
+    <col min="15861" max="15861" width="9.85546875" style="9" customWidth="1"/>
+    <col min="15862" max="15862" width="8" style="9" customWidth="1"/>
+    <col min="15863" max="15863" width="9.140625" style="9" customWidth="1"/>
+    <col min="15864" max="15864" width="8" style="9" customWidth="1"/>
+    <col min="15865" max="15866" width="6.7109375" style="9" customWidth="1"/>
+    <col min="15867" max="15867" width="8.7109375" style="9" customWidth="1"/>
+    <col min="15868" max="15869" width="8" style="9" customWidth="1"/>
+    <col min="15870" max="15870" width="10.42578125" style="9" customWidth="1"/>
+    <col min="15871" max="15872" width="6.7109375" style="9" customWidth="1"/>
+    <col min="15873" max="15873" width="13.140625" style="9" customWidth="1"/>
+    <col min="15874" max="15877" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15878" max="15879" width="8" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="11.28515625" style="9" customWidth="1"/>
+    <col min="15881" max="15883" width="8.42578125" style="9" customWidth="1"/>
+    <col min="15884" max="15886" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15887" max="16115" width="6" style="9"/>
+    <col min="16116" max="16116" width="3.140625" style="9" customWidth="1"/>
+    <col min="16117" max="16117" width="9.85546875" style="9" customWidth="1"/>
+    <col min="16118" max="16118" width="8" style="9" customWidth="1"/>
+    <col min="16119" max="16119" width="9.140625" style="9" customWidth="1"/>
+    <col min="16120" max="16120" width="8" style="9" customWidth="1"/>
+    <col min="16121" max="16122" width="6.7109375" style="9" customWidth="1"/>
+    <col min="16123" max="16123" width="8.7109375" style="9" customWidth="1"/>
+    <col min="16124" max="16125" width="8" style="9" customWidth="1"/>
+    <col min="16126" max="16126" width="10.42578125" style="9" customWidth="1"/>
+    <col min="16127" max="16128" width="6.7109375" style="9" customWidth="1"/>
+    <col min="16129" max="16129" width="13.140625" style="9" customWidth="1"/>
+    <col min="16130" max="16133" width="7.7109375" style="9" customWidth="1"/>
+    <col min="16134" max="16135" width="8" style="9" customWidth="1"/>
+    <col min="16136" max="16136" width="11.28515625" style="9" customWidth="1"/>
+    <col min="16137" max="16139" width="8.42578125" style="9" customWidth="1"/>
+    <col min="16140" max="16142" width="7.7109375" style="9" customWidth="1"/>
+    <col min="16143" max="16384" width="6" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72"/>
+    </row>
+    <row r="3" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="73" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="74"/>
@@ -20176,13 +20025,13 @@
         <v>32</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="66"/>
       <c r="F5" s="62"/>
       <c r="G5" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="65"/>
       <c r="I5" s="66"/>
@@ -20760,6 +20609,9 @@
     <mergeCell ref="R4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000 CONFIDENTIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>